--- a/BackTest/2019-11-02 BackTest FX.xlsx
+++ b/BackTest/2019-11-02 BackTest FX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>5</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-50</v>
+      </c>
       <c r="L12" t="n">
         <v>129.8</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>5</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-50</v>
+      </c>
       <c r="L13" t="n">
         <v>129.6</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>8</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L14" t="n">
         <v>129.7</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>9</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>25</v>
+      </c>
       <c r="L15" t="n">
         <v>129.9</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>12</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>60</v>
+      </c>
       <c r="L16" t="n">
         <v>130.4</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>14</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>81.81818181818183</v>
+      </c>
       <c r="L17" t="n">
         <v>131.2</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>19</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>100</v>
+      </c>
       <c r="L18" t="n">
         <v>132.6</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>19</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>100</v>
+      </c>
       <c r="L19" t="n">
         <v>134.1</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>20</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>100</v>
+      </c>
       <c r="L20" t="n">
         <v>135.6</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>26</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>100</v>
+      </c>
       <c r="L21" t="n">
         <v>137.7</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>30</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>100</v>
+      </c>
       <c r="L22" t="n">
         <v>140.2</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>31</v>
       </c>
       <c r="K23" t="n">
-        <v>73.33333333333333</v>
+        <v>91.30434782608695</v>
       </c>
       <c r="L23" t="n">
         <v>142.6</v>
@@ -1466,7 +1488,7 @@
         <v>34</v>
       </c>
       <c r="K24" t="n">
-        <v>75.75757575757575</v>
+        <v>92</v>
       </c>
       <c r="L24" t="n">
         <v>145</v>
@@ -1515,7 +1537,7 @@
         <v>35</v>
       </c>
       <c r="K25" t="n">
-        <v>70.58823529411765</v>
+        <v>82.60869565217391</v>
       </c>
       <c r="L25" t="n">
         <v>147.2</v>
@@ -1564,7 +1586,7 @@
         <v>37</v>
       </c>
       <c r="K26" t="n">
-        <v>61.11111111111111</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L26" t="n">
         <v>148.9</v>
@@ -1613,7 +1635,7 @@
         <v>38</v>
       </c>
       <c r="K27" t="n">
-        <v>61.11111111111111</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L27" t="n">
         <v>150.3</v>
@@ -1662,7 +1684,7 @@
         <v>39</v>
       </c>
       <c r="K28" t="n">
-        <v>61.11111111111111</v>
+        <v>40</v>
       </c>
       <c r="L28" t="n">
         <v>151.1</v>
@@ -1711,7 +1733,7 @@
         <v>42</v>
       </c>
       <c r="K29" t="n">
-        <v>52.63157894736842</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L29" t="n">
         <v>151.6</v>
@@ -1760,7 +1782,7 @@
         <v>48</v>
       </c>
       <c r="K30" t="n">
-        <v>58.13953488372093</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L30" t="n">
         <v>152.6</v>
@@ -1809,7 +1831,7 @@
         <v>50</v>
       </c>
       <c r="K31" t="n">
-        <v>51.11111111111111</v>
+        <v>-10</v>
       </c>
       <c r="L31" t="n">
         <v>152.8</v>
@@ -1860,7 +1882,7 @@
         <v>50</v>
       </c>
       <c r="K32" t="n">
-        <v>51.11111111111111</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L32" t="n">
         <v>152.6</v>
@@ -1911,7 +1933,7 @@
         <v>51</v>
       </c>
       <c r="K33" t="n">
-        <v>52.17391304347826</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L33" t="n">
         <v>152.6</v>
@@ -1962,7 +1984,7 @@
         <v>51</v>
       </c>
       <c r="K34" t="n">
-        <v>48.83720930232558</v>
+        <v>-12.5</v>
       </c>
       <c r="L34" t="n">
         <v>152.3</v>
@@ -2013,7 +2035,7 @@
         <v>54</v>
       </c>
       <c r="K35" t="n">
-        <v>51.11111111111111</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L35" t="n">
         <v>152.4</v>
@@ -2064,7 +2086,7 @@
         <v>55</v>
       </c>
       <c r="K36" t="n">
-        <v>44.18604651162791</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L36" t="n">
         <v>152.6</v>
@@ -2115,7 +2137,7 @@
         <v>56</v>
       </c>
       <c r="K37" t="n">
-        <v>42.85714285714285</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L37" t="n">
         <v>153</v>
@@ -2166,7 +2188,7 @@
         <v>56</v>
       </c>
       <c r="K38" t="n">
-        <v>35.13513513513514</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L38" t="n">
         <v>153.5</v>
@@ -2217,7 +2239,7 @@
         <v>58</v>
       </c>
       <c r="K39" t="n">
-        <v>28.2051282051282</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>154.1</v>
@@ -2268,7 +2290,7 @@
         <v>59</v>
       </c>
       <c r="K40" t="n">
-        <v>23.07692307692308</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L40" t="n">
         <v>154</v>
@@ -2319,7 +2341,7 @@
         <v>62</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L41" t="n">
         <v>153.8</v>
@@ -2370,7 +2392,7 @@
         <v>62</v>
       </c>
       <c r="K42" t="n">
-        <v>-12.5</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L42" t="n">
         <v>153.6</v>
@@ -2421,7 +2443,7 @@
         <v>65</v>
       </c>
       <c r="K43" t="n">
-        <v>-17.64705882352941</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L43" t="n">
         <v>153</v>
@@ -2472,7 +2494,7 @@
         <v>70</v>
       </c>
       <c r="K44" t="n">
-        <v>-38.88888888888889</v>
+        <v>-87.5</v>
       </c>
       <c r="L44" t="n">
         <v>151.9</v>
@@ -2523,7 +2545,7 @@
         <v>72</v>
       </c>
       <c r="K45" t="n">
-        <v>-29.72972972972973</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L45" t="n">
         <v>150.7</v>
@@ -2574,7 +2596,7 @@
         <v>72</v>
       </c>
       <c r="K46" t="n">
-        <v>-25.71428571428571</v>
+        <v>-75</v>
       </c>
       <c r="L46" t="n">
         <v>149.6</v>
@@ -2625,7 +2647,7 @@
         <v>75</v>
       </c>
       <c r="K47" t="n">
-        <v>-13.51351351351351</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L47" t="n">
         <v>148.7</v>
@@ -2676,7 +2698,7 @@
         <v>75</v>
       </c>
       <c r="K48" t="n">
-        <v>-11.11111111111111</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L48" t="n">
         <v>147.8</v>
@@ -2727,7 +2749,7 @@
         <v>75</v>
       </c>
       <c r="K49" t="n">
-        <v>-3.03030303030303</v>
+        <v>-37.5</v>
       </c>
       <c r="L49" t="n">
         <v>147.1</v>
@@ -2778,7 +2800,7 @@
         <v>76</v>
       </c>
       <c r="K50" t="n">
-        <v>-21.42857142857143</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L50" t="n">
         <v>146.6</v>
@@ -2829,7 +2851,7 @@
         <v>78</v>
       </c>
       <c r="K51" t="n">
-        <v>-21.42857142857143</v>
+        <v>-25</v>
       </c>
       <c r="L51" t="n">
         <v>146.2</v>
@@ -2880,7 +2902,7 @@
         <v>80</v>
       </c>
       <c r="K52" t="n">
-        <v>-13.33333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L52" t="n">
         <v>146</v>
@@ -2931,7 +2953,7 @@
         <v>81</v>
       </c>
       <c r="K53" t="n">
-        <v>-20</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L53" t="n">
         <v>146</v>
@@ -2982,7 +3004,7 @@
         <v>82</v>
       </c>
       <c r="K54" t="n">
-        <v>-22.58064516129032</v>
+        <v>20</v>
       </c>
       <c r="L54" t="n">
         <v>146.4</v>
@@ -3033,7 +3055,7 @@
         <v>82</v>
       </c>
       <c r="K55" t="n">
-        <v>-35.71428571428572</v>
+        <v>20</v>
       </c>
       <c r="L55" t="n">
         <v>146.6</v>
@@ -3084,7 +3106,7 @@
         <v>82</v>
       </c>
       <c r="K56" t="n">
-        <v>-33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L56" t="n">
         <v>146.8</v>
@@ -3135,7 +3157,7 @@
         <v>83</v>
       </c>
       <c r="K57" t="n">
-        <v>-40.74074074074074</v>
+        <v>-25</v>
       </c>
       <c r="L57" t="n">
         <v>146.6</v>
@@ -3186,7 +3208,7 @@
         <v>87</v>
       </c>
       <c r="K58" t="n">
-        <v>-48.38709677419355</v>
+        <v>-50</v>
       </c>
       <c r="L58" t="n">
         <v>146</v>
@@ -3237,7 +3259,7 @@
         <v>89</v>
       </c>
       <c r="K59" t="n">
-        <v>-48.38709677419355</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L59" t="n">
         <v>145.2</v>
@@ -3288,7 +3310,7 @@
         <v>90</v>
       </c>
       <c r="K60" t="n">
-        <v>-41.93548387096774</v>
+        <v>-50</v>
       </c>
       <c r="L60" t="n">
         <v>144.4</v>
@@ -3339,7 +3361,7 @@
         <v>93</v>
       </c>
       <c r="K61" t="n">
-        <v>-22.58064516129032</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L61" t="n">
         <v>144.1</v>
@@ -3390,7 +3412,7 @@
         <v>94</v>
       </c>
       <c r="K62" t="n">
-        <v>-25</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L62" t="n">
         <v>143.5</v>
@@ -3441,7 +3463,7 @@
         <v>96</v>
       </c>
       <c r="K63" t="n">
-        <v>-22.58064516129032</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L63" t="n">
         <v>142.8</v>
@@ -3492,7 +3514,7 @@
         <v>96</v>
       </c>
       <c r="K64" t="n">
-        <v>-7.692307692307693</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L64" t="n">
         <v>142.2</v>
@@ -3543,7 +3565,7 @@
         <v>102</v>
       </c>
       <c r="K65" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>142.2</v>
@@ -3594,7 +3616,7 @@
         <v>105</v>
       </c>
       <c r="K66" t="n">
-        <v>-3.03030303030303</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L66" t="n">
         <v>141.9</v>
@@ -3645,7 +3667,7 @@
         <v>108</v>
       </c>
       <c r="K67" t="n">
-        <v>-3.03030303030303</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L67" t="n">
         <v>142</v>
@@ -3696,7 +3718,7 @@
         <v>110</v>
       </c>
       <c r="K68" t="n">
-        <v>-8.571428571428571</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L68" t="n">
         <v>142.3</v>
@@ -3747,7 +3769,7 @@
         <v>111</v>
       </c>
       <c r="K69" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L69" t="n">
         <v>142.7</v>
@@ -3798,7 +3820,7 @@
         <v>112</v>
       </c>
       <c r="K70" t="n">
-        <v>-16.66666666666666</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L70" t="n">
         <v>142.9</v>
@@ -3849,7 +3871,7 @@
         <v>112</v>
       </c>
       <c r="K71" t="n">
-        <v>-11.76470588235294</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>142.8</v>
@@ -3900,7 +3922,7 @@
         <v>113</v>
       </c>
       <c r="K72" t="n">
-        <v>-15.15151515151515</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L72" t="n">
         <v>142.9</v>
@@ -3951,7 +3973,7 @@
         <v>114</v>
       </c>
       <c r="K73" t="n">
-        <v>-15.15151515151515</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L73" t="n">
         <v>143.1</v>
@@ -4002,7 +4024,7 @@
         <v>116</v>
       </c>
       <c r="K74" t="n">
-        <v>-5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L74" t="n">
         <v>143.5</v>
@@ -4053,7 +4075,7 @@
         <v>117</v>
       </c>
       <c r="K75" t="n">
-        <v>-2.857142857142857</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L75" t="n">
         <v>143.4</v>
@@ -4155,7 +4177,7 @@
         <v>118</v>
       </c>
       <c r="K77" t="n">
-        <v>2.857142857142857</v>
+        <v>25</v>
       </c>
       <c r="L77" t="n">
         <v>143.7</v>
@@ -4206,7 +4228,7 @@
         <v>118</v>
       </c>
       <c r="K78" t="n">
-        <v>16.12903225806452</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L78" t="n">
         <v>143.9</v>
@@ -4257,7 +4279,7 @@
         <v>118</v>
       </c>
       <c r="K79" t="n">
-        <v>24.13793103448276</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L79" t="n">
         <v>144.2</v>
@@ -4308,7 +4330,7 @@
         <v>119</v>
       </c>
       <c r="K80" t="n">
-        <v>24.13793103448276</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L80" t="n">
         <v>144.7</v>
@@ -4359,7 +4381,7 @@
         <v>119</v>
       </c>
       <c r="K81" t="n">
-        <v>15.38461538461539</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L81" t="n">
         <v>145.2</v>
@@ -4410,7 +4432,7 @@
         <v>119</v>
       </c>
       <c r="K82" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L82" t="n">
         <v>145.6</v>
@@ -4512,7 +4534,7 @@
         <v>121</v>
       </c>
       <c r="K84" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>146</v>
@@ -4563,7 +4585,7 @@
         <v>123</v>
       </c>
       <c r="K85" t="n">
-        <v>4.761904761904762</v>
+        <v>20</v>
       </c>
       <c r="L85" t="n">
         <v>146.2</v>
@@ -4614,7 +4636,7 @@
         <v>126</v>
       </c>
       <c r="K86" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L86" t="n">
         <v>146.6</v>
@@ -4665,7 +4687,7 @@
         <v>128</v>
       </c>
       <c r="K87" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L87" t="n">
         <v>147.2</v>
@@ -4716,7 +4738,7 @@
         <v>129</v>
       </c>
       <c r="K88" t="n">
-        <v>47.36842105263158</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L88" t="n">
         <v>147.9</v>
@@ -4767,7 +4789,7 @@
         <v>130</v>
       </c>
       <c r="K89" t="n">
-        <v>57.89473684210527</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L89" t="n">
         <v>148.7</v>
@@ -4818,7 +4840,7 @@
         <v>133</v>
       </c>
       <c r="K90" t="n">
-        <v>42.85714285714285</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L90" t="n">
         <v>149.1</v>
@@ -4869,7 +4891,7 @@
         <v>138</v>
       </c>
       <c r="K91" t="n">
-        <v>53.84615384615385</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L91" t="n">
         <v>150</v>
@@ -4920,7 +4942,7 @@
         <v>140</v>
       </c>
       <c r="K92" t="n">
-        <v>40.74074074074074</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L92" t="n">
         <v>150.7</v>
@@ -4971,7 +4993,7 @@
         <v>143</v>
       </c>
       <c r="K93" t="n">
-        <v>31.03448275862069</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L93" t="n">
         <v>151.3</v>
@@ -5022,7 +5044,7 @@
         <v>145</v>
       </c>
       <c r="K94" t="n">
-        <v>17.24137931034483</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L94" t="n">
         <v>151.7</v>
@@ -5073,7 +5095,7 @@
         <v>145</v>
       </c>
       <c r="K95" t="n">
-        <v>14.28571428571428</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L95" t="n">
         <v>151.9</v>
@@ -5124,7 +5146,7 @@
         <v>148</v>
       </c>
       <c r="K96" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>152.1</v>
@@ -5175,7 +5197,7 @@
         <v>151</v>
       </c>
       <c r="K97" t="n">
-        <v>9.090909090909092</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L97" t="n">
         <v>151.8</v>
@@ -5226,7 +5248,7 @@
         <v>153</v>
       </c>
       <c r="K98" t="n">
-        <v>14.28571428571428</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L98" t="n">
         <v>151.6</v>
@@ -5277,7 +5299,7 @@
         <v>153</v>
       </c>
       <c r="K99" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>151.3</v>
@@ -5328,7 +5350,7 @@
         <v>153</v>
       </c>
       <c r="K100" t="n">
-        <v>11.76470588235294</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L100" t="n">
         <v>151.3</v>
@@ -5379,7 +5401,7 @@
         <v>154</v>
       </c>
       <c r="K101" t="n">
-        <v>14.28571428571428</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L101" t="n">
         <v>150.9</v>
@@ -5481,7 +5503,7 @@
         <v>158</v>
       </c>
       <c r="K103" t="n">
-        <v>13.51351351351351</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L103" t="n">
         <v>150.7</v>
@@ -5532,7 +5554,7 @@
         <v>161</v>
       </c>
       <c r="K104" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L104" t="n">
         <v>151.1</v>
@@ -5583,7 +5605,7 @@
         <v>162</v>
       </c>
       <c r="K105" t="n">
-        <v>12.82051282051282</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>151.4</v>
@@ -5634,7 +5656,7 @@
         <v>162</v>
       </c>
       <c r="K106" t="n">
-        <v>5.555555555555555</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L106" t="n">
         <v>151.4</v>
@@ -5685,7 +5707,7 @@
         <v>163</v>
       </c>
       <c r="K107" t="n">
-        <v>-2.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>151.6</v>
@@ -5736,7 +5758,7 @@
         <v>165</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L108" t="n">
         <v>151.8</v>
@@ -5787,7 +5809,7 @@
         <v>167</v>
       </c>
       <c r="K109" t="n">
-        <v>-8.108108108108109</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>151.8</v>
@@ -5838,7 +5860,7 @@
         <v>168</v>
       </c>
       <c r="K110" t="n">
-        <v>2.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>151.9</v>
@@ -5889,7 +5911,7 @@
         <v>171</v>
       </c>
       <c r="K111" t="n">
-        <v>-21.21212121212121</v>
+        <v>-25</v>
       </c>
       <c r="L111" t="n">
         <v>151.6</v>
@@ -5940,7 +5962,7 @@
         <v>172</v>
       </c>
       <c r="K112" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>151.3</v>
@@ -5991,7 +6013,7 @@
         <v>173</v>
       </c>
       <c r="K113" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L113" t="n">
         <v>151.2</v>
@@ -6042,7 +6064,7 @@
         <v>175</v>
       </c>
       <c r="K114" t="n">
-        <v>-6.666666666666667</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L114" t="n">
         <v>150.6</v>
@@ -6093,7 +6115,7 @@
         <v>176</v>
       </c>
       <c r="K115" t="n">
-        <v>-9.67741935483871</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L115" t="n">
         <v>150</v>
@@ -6144,7 +6166,7 @@
         <v>178</v>
       </c>
       <c r="K116" t="n">
-        <v>-13.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L116" t="n">
         <v>149.6</v>
@@ -6195,7 +6217,7 @@
         <v>181</v>
       </c>
       <c r="K117" t="n">
-        <v>-13.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L117" t="n">
         <v>149</v>
@@ -6246,7 +6268,7 @@
         <v>183</v>
       </c>
       <c r="K118" t="n">
-        <v>-13.33333333333333</v>
+        <v>-25</v>
       </c>
       <c r="L118" t="n">
         <v>148.4</v>
@@ -6297,7 +6319,7 @@
         <v>188</v>
       </c>
       <c r="K119" t="n">
-        <v>-25.71428571428571</v>
+        <v>-50</v>
       </c>
       <c r="L119" t="n">
         <v>147.5</v>
@@ -6348,7 +6370,7 @@
         <v>194</v>
       </c>
       <c r="K120" t="n">
-        <v>-7.317073170731707</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L120" t="n">
         <v>147.1</v>
@@ -6399,7 +6421,7 @@
         <v>195</v>
       </c>
       <c r="K121" t="n">
-        <v>-12.19512195121951</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L121" t="n">
         <v>146.9</v>
@@ -6450,7 +6472,7 @@
         <v>195</v>
       </c>
       <c r="K122" t="n">
-        <v>-15</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L122" t="n">
         <v>146.6</v>
@@ -6501,7 +6523,7 @@
         <v>197</v>
       </c>
       <c r="K123" t="n">
-        <v>-12.82051282051282</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L123" t="n">
         <v>146.2</v>
@@ -6552,7 +6574,7 @@
         <v>199</v>
       </c>
       <c r="K124" t="n">
-        <v>-15.78947368421053</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L124" t="n">
         <v>146.2</v>
@@ -6603,7 +6625,7 @@
         <v>201</v>
       </c>
       <c r="K125" t="n">
-        <v>-17.94871794871795</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L125" t="n">
         <v>146.1</v>
@@ -6654,7 +6676,7 @@
         <v>203</v>
       </c>
       <c r="K126" t="n">
-        <v>-12.19512195121951</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L126" t="n">
         <v>146</v>
@@ -6705,7 +6727,7 @@
         <v>204</v>
       </c>
       <c r="K127" t="n">
-        <v>-7.317073170731707</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L127" t="n">
         <v>146.3</v>
@@ -6756,7 +6778,7 @@
         <v>207</v>
       </c>
       <c r="K128" t="n">
-        <v>-19.04761904761905</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L128" t="n">
         <v>146.1</v>
@@ -6807,7 +6829,7 @@
         <v>210</v>
       </c>
       <c r="K129" t="n">
-        <v>-6.976744186046512</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>146.7</v>
@@ -6858,7 +6880,7 @@
         <v>210</v>
       </c>
       <c r="K130" t="n">
-        <v>-9.523809523809524</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L130" t="n">
         <v>146.7</v>
@@ -6909,7 +6931,7 @@
         <v>211</v>
       </c>
       <c r="K131" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>146.7</v>
@@ -6960,7 +6982,7 @@
         <v>218</v>
       </c>
       <c r="K132" t="n">
-        <v>-21.73913043478261</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L132" t="n">
         <v>146</v>
@@ -7011,7 +7033,7 @@
         <v>225</v>
       </c>
       <c r="K133" t="n">
-        <v>-3.846153846153846</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>146.2</v>
@@ -7062,7 +7084,7 @@
         <v>226</v>
       </c>
       <c r="K134" t="n">
-        <v>-1.96078431372549</v>
+        <v>4</v>
       </c>
       <c r="L134" t="n">
         <v>146.1</v>
@@ -7113,7 +7135,7 @@
         <v>229</v>
       </c>
       <c r="K135" t="n">
-        <v>-5.660377358490567</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L135" t="n">
         <v>145.9</v>
@@ -7164,7 +7186,7 @@
         <v>229</v>
       </c>
       <c r="K136" t="n">
-        <v>-9.803921568627452</v>
+        <v>-20</v>
       </c>
       <c r="L136" t="n">
         <v>145.5</v>
@@ -7215,7 +7237,7 @@
         <v>229</v>
       </c>
       <c r="K137" t="n">
-        <v>-4.166666666666666</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L137" t="n">
         <v>145</v>
@@ -7266,7 +7288,7 @@
         <v>229</v>
       </c>
       <c r="K138" t="n">
-        <v>-8.695652173913043</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L138" t="n">
         <v>144.8</v>
@@ -7317,7 +7339,7 @@
         <v>230</v>
       </c>
       <c r="K139" t="n">
-        <v>4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L139" t="n">
         <v>144.4</v>
@@ -7368,7 +7390,7 @@
         <v>230</v>
       </c>
       <c r="K140" t="n">
-        <v>-11.11111111111111</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L140" t="n">
         <v>144</v>
@@ -7419,7 +7441,7 @@
         <v>230</v>
       </c>
       <c r="K141" t="n">
-        <v>-8.571428571428571</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L141" t="n">
         <v>143.7</v>
@@ -7470,7 +7492,7 @@
         <v>231</v>
       </c>
       <c r="K142" t="n">
-        <v>-5.555555555555555</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L142" t="n">
         <v>144.2</v>
@@ -7521,7 +7543,7 @@
         <v>232</v>
       </c>
       <c r="K143" t="n">
-        <v>2.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>144.1</v>
@@ -7572,7 +7594,7 @@
         <v>233</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L144" t="n">
         <v>144.2</v>
@@ -7623,7 +7645,7 @@
         <v>233</v>
       </c>
       <c r="K145" t="n">
-        <v>6.25</v>
+        <v>100</v>
       </c>
       <c r="L145" t="n">
         <v>144.6</v>
@@ -7674,7 +7696,7 @@
         <v>234</v>
       </c>
       <c r="K146" t="n">
-        <v>-3.225806451612903</v>
+        <v>60</v>
       </c>
       <c r="L146" t="n">
         <v>144.9</v>
@@ -7725,7 +7747,7 @@
         <v>234</v>
       </c>
       <c r="K147" t="n">
-        <v>-6.666666666666667</v>
+        <v>60</v>
       </c>
       <c r="L147" t="n">
         <v>145.2</v>
@@ -7776,7 +7798,7 @@
         <v>234</v>
       </c>
       <c r="K148" t="n">
-        <v>3.703703703703703</v>
+        <v>50</v>
       </c>
       <c r="L148" t="n">
         <v>145.5</v>
@@ -7827,7 +7849,7 @@
         <v>235</v>
       </c>
       <c r="K149" t="n">
-        <v>-12</v>
+        <v>20</v>
       </c>
       <c r="L149" t="n">
         <v>145.6</v>
@@ -7878,7 +7900,7 @@
         <v>237</v>
       </c>
       <c r="K150" t="n">
-        <v>-18.51851851851852</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L150" t="n">
         <v>145.5</v>
@@ -7929,7 +7951,7 @@
         <v>238</v>
       </c>
       <c r="K151" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L151" t="n">
         <v>145.5</v>
@@ -7980,7 +8002,7 @@
         <v>238</v>
       </c>
       <c r="K152" t="n">
-        <v>20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L152" t="n">
         <v>145.4</v>
@@ -8031,7 +8053,7 @@
         <v>240</v>
       </c>
       <c r="K153" t="n">
-        <v>-6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L153" t="n">
         <v>145.4</v>
@@ -8082,7 +8104,7 @@
         <v>242</v>
       </c>
       <c r="K154" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L154" t="n">
         <v>145.1</v>
@@ -8133,7 +8155,7 @@
         <v>244</v>
       </c>
       <c r="K155" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>145</v>
@@ -8184,7 +8206,7 @@
         <v>244</v>
       </c>
       <c r="K156" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>145</v>
@@ -8235,7 +8257,7 @@
         <v>245</v>
       </c>
       <c r="K157" t="n">
-        <v>25</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L157" t="n">
         <v>145.1</v>
@@ -8286,7 +8308,7 @@
         <v>247</v>
       </c>
       <c r="K158" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
         <v>145</v>
@@ -8337,7 +8359,7 @@
         <v>249</v>
       </c>
       <c r="K159" t="n">
-        <v>15.78947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L159" t="n">
         <v>145.2</v>
@@ -8388,7 +8410,7 @@
         <v>250</v>
       </c>
       <c r="K160" t="n">
-        <v>10</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L160" t="n">
         <v>145.5</v>
@@ -8439,7 +8461,7 @@
         <v>250</v>
       </c>
       <c r="K161" t="n">
-        <v>10</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L161" t="n">
         <v>145.7</v>
@@ -8490,7 +8512,7 @@
         <v>251</v>
       </c>
       <c r="K162" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L162" t="n">
         <v>145.8</v>
@@ -8541,7 +8563,7 @@
         <v>251</v>
       </c>
       <c r="K163" t="n">
-        <v>-5.263157894736842</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L163" t="n">
         <v>145.7</v>
@@ -8592,7 +8614,7 @@
         <v>252</v>
       </c>
       <c r="K164" t="n">
-        <v>-15.78947368421053</v>
+        <v>-25</v>
       </c>
       <c r="L164" t="n">
         <v>145.7</v>
@@ -8643,7 +8665,7 @@
         <v>256</v>
       </c>
       <c r="K165" t="n">
-        <v>-30.43478260869566</v>
+        <v>-50</v>
       </c>
       <c r="L165" t="n">
         <v>145.1</v>
@@ -8694,7 +8716,7 @@
         <v>258</v>
       </c>
       <c r="K166" t="n">
-        <v>-16.66666666666666</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L166" t="n">
         <v>144.7</v>
@@ -8745,7 +8767,7 @@
         <v>260</v>
       </c>
       <c r="K167" t="n">
-        <v>-23.07692307692308</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L167" t="n">
         <v>144</v>
@@ -8796,7 +8818,7 @@
         <v>261</v>
       </c>
       <c r="K168" t="n">
-        <v>-18.51851851851852</v>
+        <v>-50</v>
       </c>
       <c r="L168" t="n">
         <v>143.6</v>
@@ -8847,7 +8869,7 @@
         <v>261</v>
       </c>
       <c r="K169" t="n">
-        <v>-15.38461538461539</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L169" t="n">
         <v>143</v>
@@ -8898,7 +8920,7 @@
         <v>264</v>
       </c>
       <c r="K170" t="n">
-        <v>3.703703703703703</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L170" t="n">
         <v>142.8</v>
@@ -8949,7 +8971,7 @@
         <v>266</v>
       </c>
       <c r="K171" t="n">
-        <v>7.142857142857142</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L171" t="n">
         <v>142.8</v>
@@ -9000,7 +9022,7 @@
         <v>266</v>
       </c>
       <c r="K172" t="n">
-        <v>7.142857142857142</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L172" t="n">
         <v>142.9</v>
@@ -9051,7 +9073,7 @@
         <v>267</v>
       </c>
       <c r="K173" t="n">
-        <v>-3.703703703703703</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L173" t="n">
         <v>142.9</v>
@@ -9102,7 +9124,7 @@
         <v>267</v>
       </c>
       <c r="K174" t="n">
-        <v>4</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L174" t="n">
         <v>143</v>
@@ -9153,7 +9175,7 @@
         <v>269</v>
       </c>
       <c r="K175" t="n">
-        <v>-12</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L175" t="n">
         <v>143.3</v>
@@ -9204,7 +9226,7 @@
         <v>270</v>
       </c>
       <c r="K176" t="n">
-        <v>-15.38461538461539</v>
+        <v>20</v>
       </c>
       <c r="L176" t="n">
         <v>143.3</v>
@@ -9255,7 +9277,7 @@
         <v>271</v>
       </c>
       <c r="K177" t="n">
-        <v>-15.38461538461539</v>
+        <v>20</v>
       </c>
       <c r="L177" t="n">
         <v>143.6</v>
@@ -9306,7 +9328,7 @@
         <v>271</v>
       </c>
       <c r="K178" t="n">
-        <v>-8.333333333333332</v>
+        <v>20</v>
       </c>
       <c r="L178" t="n">
         <v>143.8</v>
@@ -9357,7 +9379,7 @@
         <v>271</v>
       </c>
       <c r="K179" t="n">
-        <v>-18.18181818181818</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L179" t="n">
         <v>144</v>
@@ -9408,7 +9430,7 @@
         <v>272</v>
       </c>
       <c r="K180" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L180" t="n">
         <v>144</v>
@@ -9459,7 +9481,7 @@
         <v>273</v>
       </c>
       <c r="K181" t="n">
-        <v>-13.04347826086956</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L181" t="n">
         <v>143.7</v>
@@ -9510,7 +9532,7 @@
         <v>273</v>
       </c>
       <c r="K182" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L182" t="n">
         <v>143.4</v>
@@ -9561,7 +9583,7 @@
         <v>275</v>
       </c>
       <c r="K183" t="n">
-        <v>-16.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L183" t="n">
         <v>143</v>
@@ -9612,7 +9634,7 @@
         <v>276</v>
       </c>
       <c r="K184" t="n">
-        <v>-8.333333333333332</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L184" t="n">
         <v>142.7</v>
@@ -9663,7 +9685,7 @@
         <v>277</v>
       </c>
       <c r="K185" t="n">
-        <v>4.761904761904762</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L185" t="n">
         <v>142.5</v>
@@ -9714,7 +9736,7 @@
         <v>278</v>
       </c>
       <c r="K186" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L186" t="n">
         <v>142.5</v>
@@ -9765,7 +9787,7 @@
         <v>280</v>
       </c>
       <c r="K187" t="n">
-        <v>20</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L187" t="n">
         <v>142.6</v>
@@ -9816,7 +9838,7 @@
         <v>282</v>
       </c>
       <c r="K188" t="n">
-        <v>4.761904761904762</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L188" t="n">
         <v>142.5</v>
@@ -9867,7 +9889,7 @@
         <v>284</v>
       </c>
       <c r="K189" t="n">
-        <v>13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L189" t="n">
         <v>142.6</v>
@@ -9918,7 +9940,7 @@
         <v>286</v>
       </c>
       <c r="K190" t="n">
-        <v>-9.090909090909092</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L190" t="n">
         <v>142.4</v>
@@ -9969,7 +9991,7 @@
         <v>286</v>
       </c>
       <c r="K191" t="n">
-        <v>-20</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L191" t="n">
         <v>142.3</v>
@@ -10020,7 +10042,7 @@
         <v>286</v>
       </c>
       <c r="K192" t="n">
-        <v>-20</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L192" t="n">
         <v>142.2</v>
@@ -10071,7 +10093,7 @@
         <v>286</v>
       </c>
       <c r="K193" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
         <v>142.3</v>
@@ -10122,7 +10144,7 @@
         <v>286</v>
       </c>
       <c r="K194" t="n">
-        <v>-15.78947368421053</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L194" t="n">
         <v>142.3</v>
@@ -10173,7 +10195,7 @@
         <v>288</v>
       </c>
       <c r="K195" t="n">
-        <v>-15.78947368421053</v>
+        <v>-20</v>
       </c>
       <c r="L195" t="n">
         <v>142.2</v>
@@ -10224,7 +10246,7 @@
         <v>288</v>
       </c>
       <c r="K196" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L196" t="n">
         <v>142</v>
@@ -10275,7 +10297,7 @@
         <v>290</v>
       </c>
       <c r="K197" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>141.8</v>
@@ -10326,7 +10348,7 @@
         <v>291</v>
       </c>
       <c r="K198" t="n">
-        <v>-10</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L198" t="n">
         <v>141.7</v>
@@ -10377,7 +10399,7 @@
         <v>292</v>
       </c>
       <c r="K199" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L199" t="n">
         <v>141.3</v>
@@ -10428,7 +10450,7 @@
         <v>292</v>
       </c>
       <c r="K200" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L200" t="n">
         <v>141.1</v>
@@ -10479,7 +10501,7 @@
         <v>292</v>
       </c>
       <c r="K201" t="n">
-        <v>-15.78947368421053</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L201" t="n">
         <v>140.9</v>
@@ -10530,7 +10552,7 @@
         <v>292</v>
       </c>
       <c r="K202" t="n">
-        <v>-15.78947368421053</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L202" t="n">
         <v>140.7</v>
@@ -10581,7 +10603,7 @@
         <v>294</v>
       </c>
       <c r="K203" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L203" t="n">
         <v>140.7</v>
@@ -10632,7 +10654,7 @@
         <v>295</v>
       </c>
       <c r="K204" t="n">
-        <v>-5.263157894736842</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L204" t="n">
         <v>140.6</v>
@@ -10683,7 +10705,7 @@
         <v>296</v>
       </c>
       <c r="K205" t="n">
-        <v>5.263157894736842</v>
+        <v>25</v>
       </c>
       <c r="L205" t="n">
         <v>140.8</v>
@@ -10734,7 +10756,7 @@
         <v>297</v>
       </c>
       <c r="K206" t="n">
-        <v>-5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L206" t="n">
         <v>140.9</v>
@@ -10785,7 +10807,7 @@
         <v>298</v>
       </c>
       <c r="K207" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L207" t="n">
         <v>140.9</v>
@@ -10836,7 +10858,7 @@
         <v>299</v>
       </c>
       <c r="K208" t="n">
-        <v>-5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L208" t="n">
         <v>140.9</v>
@@ -10887,7 +10909,7 @@
         <v>299</v>
       </c>
       <c r="K209" t="n">
-        <v>-20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L209" t="n">
         <v>141</v>
@@ -10938,7 +10960,7 @@
         <v>301</v>
       </c>
       <c r="K210" t="n">
-        <v>-20</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L210" t="n">
         <v>140.9</v>
@@ -10989,7 +11011,7 @@
         <v>303</v>
       </c>
       <c r="K211" t="n">
-        <v>-5.88235294117647</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L211" t="n">
         <v>141</v>
@@ -11040,7 +11062,7 @@
         <v>304</v>
       </c>
       <c r="K212" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L212" t="n">
         <v>141</v>
@@ -11142,7 +11164,7 @@
         <v>304</v>
       </c>
       <c r="K214" t="n">
-        <v>-11.11111111111111</v>
+        <v>-25</v>
       </c>
       <c r="L214" t="n">
         <v>140.7</v>
@@ -11244,7 +11266,7 @@
         <v>308</v>
       </c>
       <c r="K216" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L216" t="n">
         <v>140.6</v>
@@ -11295,7 +11317,7 @@
         <v>309</v>
       </c>
       <c r="K217" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L217" t="n">
         <v>140.5</v>
@@ -11346,7 +11368,7 @@
         <v>311</v>
       </c>
       <c r="K218" t="n">
-        <v>10</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L218" t="n">
         <v>140.7</v>
@@ -11397,7 +11419,7 @@
         <v>312</v>
       </c>
       <c r="K219" t="n">
-        <v>10</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L219" t="n">
         <v>140.8</v>
@@ -11448,7 +11470,7 @@
         <v>312</v>
       </c>
       <c r="K220" t="n">
-        <v>10</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L220" t="n">
         <v>141.1</v>
@@ -11499,7 +11521,7 @@
         <v>314</v>
       </c>
       <c r="K221" t="n">
-        <v>18.18181818181818</v>
+        <v>40</v>
       </c>
       <c r="L221" t="n">
         <v>141.4</v>
@@ -11550,7 +11572,7 @@
         <v>314</v>
       </c>
       <c r="K222" t="n">
-        <v>18.18181818181818</v>
+        <v>40</v>
       </c>
       <c r="L222" t="n">
         <v>141.8</v>
@@ -11601,7 +11623,7 @@
         <v>315</v>
       </c>
       <c r="K223" t="n">
-        <v>4.761904761904762</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L223" t="n">
         <v>142.1</v>
@@ -11652,7 +11674,7 @@
         <v>316</v>
       </c>
       <c r="K224" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L224" t="n">
         <v>142.5</v>
@@ -11703,7 +11725,7 @@
         <v>317</v>
       </c>
       <c r="K225" t="n">
-        <v>14.28571428571428</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L225" t="n">
         <v>142.8</v>
@@ -11754,7 +11776,7 @@
         <v>319</v>
       </c>
       <c r="K226" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L226" t="n">
         <v>143.1</v>
@@ -11805,7 +11827,7 @@
         <v>321</v>
       </c>
       <c r="K227" t="n">
-        <v>13.04347826086956</v>
+        <v>20</v>
       </c>
       <c r="L227" t="n">
         <v>143.5</v>
@@ -11856,7 +11878,7 @@
         <v>322</v>
       </c>
       <c r="K228" t="n">
-        <v>13.04347826086956</v>
+        <v>20</v>
       </c>
       <c r="L228" t="n">
         <v>143.6</v>
@@ -11907,7 +11929,7 @@
         <v>323</v>
       </c>
       <c r="K229" t="n">
-        <v>16.66666666666666</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L229" t="n">
         <v>143.9</v>
@@ -11958,7 +11980,7 @@
         <v>323</v>
       </c>
       <c r="K230" t="n">
-        <v>27.27272727272727</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L230" t="n">
         <v>144.2</v>
@@ -12009,7 +12031,7 @@
         <v>324</v>
       </c>
       <c r="K231" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L231" t="n">
         <v>144.2</v>
@@ -12060,7 +12082,7 @@
         <v>324</v>
       </c>
       <c r="K232" t="n">
-        <v>20</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L232" t="n">
         <v>144.2</v>
@@ -12111,7 +12133,7 @@
         <v>324</v>
       </c>
       <c r="K233" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L233" t="n">
         <v>144.3</v>
@@ -12162,7 +12184,7 @@
         <v>325</v>
       </c>
       <c r="K234" t="n">
-        <v>14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L234" t="n">
         <v>144.2</v>
@@ -12213,7 +12235,7 @@
         <v>326</v>
       </c>
       <c r="K235" t="n">
-        <v>10</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L235" t="n">
         <v>144.1</v>
@@ -12264,7 +12286,7 @@
         <v>328</v>
       </c>
       <c r="K236" t="n">
-        <v>10</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L236" t="n">
         <v>144</v>
@@ -12315,7 +12337,7 @@
         <v>330</v>
       </c>
       <c r="K237" t="n">
-        <v>-4.761904761904762</v>
+        <v>-50</v>
       </c>
       <c r="L237" t="n">
         <v>143.5</v>
@@ -12366,7 +12388,7 @@
         <v>333</v>
       </c>
       <c r="K238" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L238" t="n">
         <v>143.4</v>
@@ -12417,7 +12439,7 @@
         <v>334</v>
       </c>
       <c r="K239" t="n">
-        <v>0</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L239" t="n">
         <v>143.1</v>
@@ -12468,7 +12490,7 @@
         <v>335</v>
       </c>
       <c r="K240" t="n">
-        <v>4.347826086956522</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L240" t="n">
         <v>142.9</v>
@@ -12519,7 +12541,7 @@
         <v>339</v>
       </c>
       <c r="K241" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L241" t="n">
         <v>142.4</v>
@@ -12570,7 +12592,7 @@
         <v>341</v>
       </c>
       <c r="K242" t="n">
-        <v>-11.11111111111111</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L242" t="n">
         <v>142.1</v>
@@ -12621,7 +12643,7 @@
         <v>342</v>
       </c>
       <c r="K243" t="n">
-        <v>-3.703703703703703</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L243" t="n">
         <v>141.9</v>
@@ -12672,7 +12694,7 @@
         <v>343</v>
       </c>
       <c r="K244" t="n">
-        <v>-3.703703703703703</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L244" t="n">
         <v>141.9</v>
@@ -12723,7 +12745,7 @@
         <v>344</v>
       </c>
       <c r="K245" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L245" t="n">
         <v>141.7</v>
@@ -12774,7 +12796,7 @@
         <v>344</v>
       </c>
       <c r="K246" t="n">
-        <v>-4</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L246" t="n">
         <v>141.7</v>
@@ -12825,7 +12847,7 @@
         <v>344</v>
       </c>
       <c r="K247" t="n">
-        <v>-13.04347826086956</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L247" t="n">
         <v>141.9</v>
@@ -12876,7 +12898,7 @@
         <v>345</v>
       </c>
       <c r="K248" t="n">
-        <v>-13.04347826086956</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L248" t="n">
         <v>141.7</v>
@@ -12927,7 +12949,7 @@
         <v>346</v>
       </c>
       <c r="K249" t="n">
-        <v>-21.73913043478261</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L249" t="n">
         <v>141.5</v>
@@ -12978,7 +13000,7 @@
         <v>346</v>
       </c>
       <c r="K250" t="n">
-        <v>-21.73913043478261</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L250" t="n">
         <v>141.2</v>
@@ -13029,7 +13051,7 @@
         <v>348</v>
       </c>
       <c r="K251" t="n">
-        <v>-8.333333333333332</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L251" t="n">
         <v>141.5</v>
@@ -13080,7 +13102,7 @@
         <v>348</v>
       </c>
       <c r="K252" t="n">
-        <v>-8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L252" t="n">
         <v>141.6</v>
@@ -13131,7 +13153,7 @@
         <v>352</v>
       </c>
       <c r="K253" t="n">
-        <v>-21.42857142857143</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L253" t="n">
         <v>141.2</v>
@@ -13182,7 +13204,7 @@
         <v>354</v>
       </c>
       <c r="K254" t="n">
-        <v>-10.3448275862069</v>
+        <v>-20</v>
       </c>
       <c r="L254" t="n">
         <v>140.9</v>
@@ -13233,7 +13255,7 @@
         <v>355</v>
       </c>
       <c r="K255" t="n">
-        <v>-10.3448275862069</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L255" t="n">
         <v>140.8</v>
@@ -13284,7 +13306,7 @@
         <v>356</v>
       </c>
       <c r="K256" t="n">
-        <v>-7.142857142857142</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L256" t="n">
         <v>140.6</v>
@@ -13335,7 +13357,7 @@
         <v>357</v>
       </c>
       <c r="K257" t="n">
-        <v>-3.703703703703703</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L257" t="n">
         <v>140.3</v>
@@ -13386,7 +13408,7 @@
         <v>357</v>
       </c>
       <c r="K258" t="n">
-        <v>-16.66666666666666</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L258" t="n">
         <v>140.1</v>
@@ -13437,7 +13459,7 @@
         <v>357</v>
       </c>
       <c r="K259" t="n">
-        <v>-13.04347826086956</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L259" t="n">
         <v>140</v>
@@ -13488,7 +13510,7 @@
         <v>358</v>
       </c>
       <c r="K260" t="n">
-        <v>-21.73913043478261</v>
+        <v>-40</v>
       </c>
       <c r="L260" t="n">
         <v>139.8</v>
@@ -13539,7 +13561,7 @@
         <v>359</v>
       </c>
       <c r="K261" t="n">
-        <v>0</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L261" t="n">
         <v>139.5</v>
@@ -13590,7 +13612,7 @@
         <v>359</v>
       </c>
       <c r="K262" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L262" t="n">
         <v>139.2</v>
@@ -13641,7 +13663,7 @@
         <v>361</v>
       </c>
       <c r="K263" t="n">
-        <v>-26.31578947368421</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L263" t="n">
         <v>139.1</v>
@@ -13692,7 +13714,7 @@
         <v>361</v>
       </c>
       <c r="K264" t="n">
-        <v>-33.33333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L264" t="n">
         <v>138.8</v>
@@ -13743,7 +13765,7 @@
         <v>362</v>
       </c>
       <c r="K265" t="n">
-        <v>-33.33333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L265" t="n">
         <v>138.3</v>
@@ -13794,7 +13816,7 @@
         <v>363</v>
       </c>
       <c r="K266" t="n">
-        <v>-26.31578947368421</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L266" t="n">
         <v>138</v>
@@ -13845,7 +13867,7 @@
         <v>370</v>
       </c>
       <c r="K267" t="n">
-        <v>7.692307692307693</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L267" t="n">
         <v>138.5</v>
@@ -13896,7 +13918,7 @@
         <v>373</v>
       </c>
       <c r="K268" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="L268" t="n">
         <v>138.7</v>
@@ -13947,7 +13969,7 @@
         <v>374</v>
       </c>
       <c r="K269" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="L269" t="n">
         <v>138.8</v>
@@ -13998,7 +14020,7 @@
         <v>376</v>
       </c>
       <c r="K270" t="n">
-        <v>-6.666666666666667</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L270" t="n">
         <v>138.8</v>
@@ -14049,7 +14071,7 @@
         <v>379</v>
       </c>
       <c r="K271" t="n">
-        <v>-3.225806451612903</v>
+        <v>10</v>
       </c>
       <c r="L271" t="n">
         <v>139</v>
@@ -14100,7 +14122,7 @@
         <v>379</v>
       </c>
       <c r="K272" t="n">
-        <v>-3.225806451612903</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L272" t="n">
         <v>139.2</v>
@@ -14151,7 +14173,7 @@
         <v>383</v>
       </c>
       <c r="K273" t="n">
-        <v>-3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L273" t="n">
         <v>139.2</v>
@@ -14202,7 +14224,7 @@
         <v>383</v>
       </c>
       <c r="K274" t="n">
-        <v>-10.3448275862069</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L274" t="n">
         <v>139.2</v>
@@ -14253,7 +14275,7 @@
         <v>384</v>
       </c>
       <c r="K275" t="n">
-        <v>-10.3448275862069</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L275" t="n">
         <v>139.4</v>
@@ -14304,7 +14326,7 @@
         <v>386</v>
       </c>
       <c r="K276" t="n">
-        <v>-13.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L276" t="n">
         <v>139.3</v>
@@ -14355,7 +14377,7 @@
         <v>387</v>
       </c>
       <c r="K277" t="n">
-        <v>-6.666666666666667</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L277" t="n">
         <v>138.6</v>
@@ -14406,7 +14428,7 @@
         <v>387</v>
       </c>
       <c r="K278" t="n">
-        <v>-6.666666666666667</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L278" t="n">
         <v>138.2</v>
@@ -14457,7 +14479,7 @@
         <v>387</v>
       </c>
       <c r="K279" t="n">
-        <v>-6.666666666666667</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L279" t="n">
         <v>137.9</v>
@@ -14508,7 +14530,7 @@
         <v>388</v>
       </c>
       <c r="K280" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L280" t="n">
         <v>137.9</v>
@@ -14559,7 +14581,7 @@
         <v>388</v>
       </c>
       <c r="K281" t="n">
-        <v>-3.448275862068965</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L281" t="n">
         <v>137.6</v>
@@ -14610,7 +14632,7 @@
         <v>389</v>
       </c>
       <c r="K282" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L282" t="n">
         <v>137.4</v>
@@ -14661,7 +14683,7 @@
         <v>389</v>
       </c>
       <c r="K283" t="n">
-        <v>7.142857142857142</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L283" t="n">
         <v>137.6</v>
@@ -14712,7 +14734,7 @@
         <v>390</v>
       </c>
       <c r="K284" t="n">
-        <v>10.3448275862069</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L284" t="n">
         <v>137.9</v>
@@ -14763,7 +14785,7 @@
         <v>391</v>
       </c>
       <c r="K285" t="n">
-        <v>10.3448275862069</v>
+        <v>60</v>
       </c>
       <c r="L285" t="n">
         <v>138</v>
@@ -14814,7 +14836,7 @@
         <v>391</v>
       </c>
       <c r="K286" t="n">
-        <v>7.142857142857142</v>
+        <v>50</v>
       </c>
       <c r="L286" t="n">
         <v>138.3</v>
@@ -14865,7 +14887,7 @@
         <v>391</v>
       </c>
       <c r="K287" t="n">
-        <v>-23.80952380952381</v>
+        <v>50</v>
       </c>
       <c r="L287" t="n">
         <v>138.5</v>
@@ -14916,7 +14938,7 @@
         <v>391</v>
       </c>
       <c r="K288" t="n">
-        <v>-11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L288" t="n">
         <v>138.7</v>
@@ -14967,7 +14989,7 @@
         <v>391</v>
       </c>
       <c r="K289" t="n">
-        <v>-5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L289" t="n">
         <v>138.9</v>
@@ -15018,7 +15040,7 @@
         <v>392</v>
       </c>
       <c r="K290" t="n">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="L290" t="n">
         <v>139.1</v>
@@ -15069,7 +15091,7 @@
         <v>393</v>
       </c>
       <c r="K291" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L291" t="n">
         <v>139.2</v>
@@ -15171,7 +15193,7 @@
         <v>396</v>
       </c>
       <c r="K293" t="n">
-        <v>-7.692307692307693</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L293" t="n">
         <v>138.8</v>
@@ -15222,7 +15244,7 @@
         <v>396</v>
       </c>
       <c r="K294" t="n">
-        <v>-7.692307692307693</v>
+        <v>-60</v>
       </c>
       <c r="L294" t="n">
         <v>138.4</v>
@@ -15273,7 +15295,7 @@
         <v>397</v>
       </c>
       <c r="K295" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L295" t="n">
         <v>138.2</v>
@@ -15324,7 +15346,7 @@
         <v>398</v>
       </c>
       <c r="K296" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L296" t="n">
         <v>137.9</v>
@@ -15375,7 +15397,7 @@
         <v>399</v>
       </c>
       <c r="K297" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L297" t="n">
         <v>137.7</v>
@@ -15426,7 +15448,7 @@
         <v>401</v>
       </c>
       <c r="K298" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L298" t="n">
         <v>137.7</v>
@@ -15477,7 +15499,7 @@
         <v>402</v>
       </c>
       <c r="K299" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L299" t="n">
         <v>137.8</v>
@@ -15528,7 +15550,7 @@
         <v>402</v>
       </c>
       <c r="K300" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L300" t="n">
         <v>137.8</v>
@@ -15579,7 +15601,7 @@
         <v>402</v>
       </c>
       <c r="K301" t="n">
-        <v>14.28571428571428</v>
+        <v>25</v>
       </c>
       <c r="L301" t="n">
         <v>137.9</v>
@@ -15630,7 +15652,7 @@
         <v>405</v>
       </c>
       <c r="K302" t="n">
-        <v>25</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L302" t="n">
         <v>138.4</v>
@@ -15681,7 +15703,7 @@
         <v>408</v>
       </c>
       <c r="K303" t="n">
-        <v>5.263157894736842</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L303" t="n">
         <v>138.8</v>
@@ -15732,7 +15754,7 @@
         <v>409</v>
       </c>
       <c r="K304" t="n">
-        <v>-5.263157894736842</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L304" t="n">
         <v>139.1</v>
@@ -15783,7 +15805,7 @@
         <v>410</v>
       </c>
       <c r="K305" t="n">
-        <v>5.263157894736842</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L305" t="n">
         <v>139.4</v>
@@ -15834,7 +15856,7 @@
         <v>410</v>
       </c>
       <c r="K306" t="n">
-        <v>5.263157894736842</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L306" t="n">
         <v>139.8</v>
@@ -15885,7 +15907,7 @@
         <v>411</v>
       </c>
       <c r="K307" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L307" t="n">
         <v>140.2</v>
@@ -15936,7 +15958,7 @@
         <v>413</v>
       </c>
       <c r="K308" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L308" t="n">
         <v>140.2</v>
@@ -15987,7 +16009,7 @@
         <v>413</v>
       </c>
       <c r="K309" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L309" t="n">
         <v>140.1</v>
@@ -16089,7 +16111,7 @@
         <v>416</v>
       </c>
       <c r="K311" t="n">
-        <v>13.04347826086956</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L311" t="n">
         <v>140.3</v>
@@ -16140,7 +16162,7 @@
         <v>417</v>
       </c>
       <c r="K312" t="n">
-        <v>13.04347826086956</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L312" t="n">
         <v>140.1</v>
@@ -16191,7 +16213,7 @@
         <v>418</v>
       </c>
       <c r="K313" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L313" t="n">
         <v>140.3</v>
@@ -16242,7 +16264,7 @@
         <v>419</v>
       </c>
       <c r="K314" t="n">
-        <v>21.73913043478261</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L314" t="n">
         <v>140.5</v>
@@ -16293,7 +16315,7 @@
         <v>420</v>
       </c>
       <c r="K315" t="n">
-        <v>13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L315" t="n">
         <v>140.5</v>
@@ -16344,7 +16366,7 @@
         <v>422</v>
       </c>
       <c r="K316" t="n">
-        <v>25</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L316" t="n">
         <v>140.7</v>
@@ -16395,7 +16417,7 @@
         <v>423</v>
       </c>
       <c r="K317" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L317" t="n">
         <v>140.7</v>
@@ -16446,7 +16468,7 @@
         <v>424</v>
       </c>
       <c r="K318" t="n">
-        <v>13.04347826086956</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L318" t="n">
         <v>141</v>
@@ -16548,7 +16570,7 @@
         <v>426</v>
       </c>
       <c r="K320" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L320" t="n">
         <v>141.1</v>
@@ -16599,7 +16621,7 @@
         <v>426</v>
       </c>
       <c r="K321" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L321" t="n">
         <v>140.9</v>
@@ -16650,7 +16672,7 @@
         <v>427</v>
       </c>
       <c r="K322" t="n">
-        <v>-18.18181818181818</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L322" t="n">
         <v>140.7</v>
@@ -16701,7 +16723,7 @@
         <v>428</v>
       </c>
       <c r="K323" t="n">
-        <v>-10</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L323" t="n">
         <v>140.3</v>
@@ -16752,7 +16774,7 @@
         <v>429</v>
       </c>
       <c r="K324" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L324" t="n">
         <v>140.1</v>
@@ -16803,7 +16825,7 @@
         <v>429</v>
       </c>
       <c r="K325" t="n">
-        <v>-5.263157894736842</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L325" t="n">
         <v>140</v>
@@ -16854,7 +16876,7 @@
         <v>431</v>
       </c>
       <c r="K326" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L326" t="n">
         <v>139.9</v>
@@ -16905,7 +16927,7 @@
         <v>431</v>
       </c>
       <c r="K327" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L327" t="n">
         <v>139.9</v>
@@ -16956,7 +16978,7 @@
         <v>432</v>
       </c>
       <c r="K328" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L328" t="n">
         <v>139.7</v>
@@ -17007,7 +17029,7 @@
         <v>433</v>
       </c>
       <c r="K329" t="n">
-        <v>10</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L329" t="n">
         <v>139.8</v>
@@ -17109,7 +17131,7 @@
         <v>435</v>
       </c>
       <c r="K331" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L331" t="n">
         <v>139.7</v>
@@ -17160,7 +17182,7 @@
         <v>436</v>
       </c>
       <c r="K332" t="n">
-        <v>-5.263157894736842</v>
+        <v>25</v>
       </c>
       <c r="L332" t="n">
         <v>139.8</v>
@@ -17211,7 +17233,7 @@
         <v>437</v>
       </c>
       <c r="K333" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L333" t="n">
         <v>139.9</v>
@@ -17262,7 +17284,7 @@
         <v>437</v>
       </c>
       <c r="K334" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L334" t="n">
         <v>139.9</v>
@@ -17313,7 +17335,7 @@
         <v>437</v>
       </c>
       <c r="K335" t="n">
-        <v>-5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L335" t="n">
         <v>139.9</v>
@@ -17364,7 +17386,7 @@
         <v>438</v>
       </c>
       <c r="K336" t="n">
-        <v>-25</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L336" t="n">
         <v>139.6</v>
@@ -17415,7 +17437,7 @@
         <v>439</v>
       </c>
       <c r="K337" t="n">
-        <v>-25</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L337" t="n">
         <v>139.2</v>
@@ -17466,7 +17488,7 @@
         <v>439</v>
       </c>
       <c r="K338" t="n">
-        <v>-33.33333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L338" t="n">
         <v>138.9</v>
@@ -17517,7 +17539,7 @@
         <v>440</v>
       </c>
       <c r="K339" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L339" t="n">
         <v>138.6</v>
@@ -17568,7 +17590,7 @@
         <v>440</v>
       </c>
       <c r="K340" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L340" t="n">
         <v>138.4</v>
@@ -17619,7 +17641,7 @@
         <v>440</v>
       </c>
       <c r="K341" t="n">
-        <v>-14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L341" t="n">
         <v>138.3</v>
@@ -17670,7 +17692,7 @@
         <v>440</v>
       </c>
       <c r="K342" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L342" t="n">
         <v>138.1</v>
@@ -17721,7 +17743,7 @@
         <v>441</v>
       </c>
       <c r="K343" t="n">
-        <v>-7.692307692307693</v>
+        <v>-50</v>
       </c>
       <c r="L343" t="n">
         <v>137.9</v>
@@ -17772,7 +17794,7 @@
         <v>441</v>
       </c>
       <c r="K344" t="n">
-        <v>-16.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L344" t="n">
         <v>137.7</v>
@@ -17823,7 +17845,7 @@
         <v>441</v>
       </c>
       <c r="K345" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L345" t="n">
         <v>137.5</v>
@@ -17874,7 +17896,7 @@
         <v>441</v>
       </c>
       <c r="K346" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="L346" t="n">
         <v>137.4</v>
@@ -17925,7 +17947,7 @@
         <v>442</v>
       </c>
       <c r="K347" t="n">
-        <v>-27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L347" t="n">
         <v>137.5</v>
@@ -17976,7 +17998,7 @@
         <v>443</v>
       </c>
       <c r="K348" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L348" t="n">
         <v>137.5</v>
@@ -18027,7 +18049,7 @@
         <v>443</v>
       </c>
       <c r="K349" t="n">
-        <v>-40</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L349" t="n">
         <v>137.4</v>
@@ -18129,7 +18151,7 @@
         <v>443</v>
       </c>
       <c r="K351" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L351" t="n">
         <v>137.2</v>
@@ -18180,7 +18202,7 @@
         <v>443</v>
       </c>
       <c r="K352" t="n">
-        <v>-42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="L352" t="n">
         <v>137.1</v>
@@ -18231,7 +18253,7 @@
         <v>443</v>
       </c>
       <c r="K353" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L353" t="n">
         <v>137.1</v>
@@ -18282,7 +18304,7 @@
         <v>444</v>
       </c>
       <c r="K354" t="n">
-        <v>-14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L354" t="n">
         <v>137.2</v>
@@ -18333,7 +18355,7 @@
         <v>444</v>
       </c>
       <c r="K355" t="n">
-        <v>-14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L355" t="n">
         <v>137.3</v>
@@ -18384,7 +18406,7 @@
         <v>446</v>
       </c>
       <c r="K356" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L356" t="n">
         <v>137.6</v>
@@ -18435,7 +18457,7 @@
         <v>447</v>
       </c>
       <c r="K357" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L357" t="n">
         <v>137.7</v>
@@ -18486,7 +18508,7 @@
         <v>447</v>
       </c>
       <c r="K358" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L358" t="n">
         <v>137.9</v>
@@ -18537,7 +18559,7 @@
         <v>448</v>
       </c>
       <c r="K359" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L359" t="n">
         <v>138</v>
@@ -18588,7 +18610,7 @@
         <v>448</v>
       </c>
       <c r="K360" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L360" t="n">
         <v>138.1</v>
@@ -18639,7 +18661,7 @@
         <v>448</v>
       </c>
       <c r="K361" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L361" t="n">
         <v>138.2</v>
@@ -18690,7 +18712,7 @@
         <v>449</v>
       </c>
       <c r="K362" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L362" t="n">
         <v>138.4</v>
@@ -18741,7 +18763,7 @@
         <v>449</v>
       </c>
       <c r="K363" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L363" t="n">
         <v>138.6</v>
@@ -18792,7 +18814,7 @@
         <v>451</v>
       </c>
       <c r="K364" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L364" t="n">
         <v>138.5</v>
@@ -18843,7 +18865,7 @@
         <v>453</v>
       </c>
       <c r="K365" t="n">
-        <v>16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L365" t="n">
         <v>138.6</v>
@@ -18894,7 +18916,7 @@
         <v>454</v>
       </c>
       <c r="K366" t="n">
-        <v>7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L366" t="n">
         <v>138.4</v>
@@ -18945,7 +18967,7 @@
         <v>454</v>
       </c>
       <c r="K367" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L367" t="n">
         <v>138.3</v>
@@ -18996,7 +19018,7 @@
         <v>455</v>
       </c>
       <c r="K368" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L368" t="n">
         <v>138.1</v>
@@ -19047,7 +19069,7 @@
         <v>457</v>
       </c>
       <c r="K369" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L369" t="n">
         <v>138.2</v>
@@ -19098,7 +19120,7 @@
         <v>457</v>
       </c>
       <c r="K370" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L370" t="n">
         <v>138.3</v>
@@ -19149,7 +19171,7 @@
         <v>459</v>
       </c>
       <c r="K371" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L371" t="n">
         <v>138.2</v>
@@ -19200,7 +19222,7 @@
         <v>460</v>
       </c>
       <c r="K372" t="n">
-        <v>5.88235294117647</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L372" t="n">
         <v>138.1</v>
@@ -19302,7 +19324,7 @@
         <v>461</v>
       </c>
       <c r="K374" t="n">
-        <v>-5.88235294117647</v>
+        <v>-25</v>
       </c>
       <c r="L374" t="n">
         <v>137.9</v>
@@ -19353,7 +19375,7 @@
         <v>462</v>
       </c>
       <c r="K375" t="n">
-        <v>-11.11111111111111</v>
+        <v>-25</v>
       </c>
       <c r="L375" t="n">
         <v>137.6</v>
@@ -19404,7 +19426,7 @@
         <v>463</v>
       </c>
       <c r="K376" t="n">
-        <v>-17.64705882352941</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L376" t="n">
         <v>137.5</v>
@@ -19455,7 +19477,7 @@
         <v>464</v>
       </c>
       <c r="K377" t="n">
-        <v>-17.64705882352941</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L377" t="n">
         <v>137.3</v>
@@ -19506,7 +19528,7 @@
         <v>464</v>
       </c>
       <c r="K378" t="n">
-        <v>-17.64705882352941</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L378" t="n">
         <v>137.2</v>
@@ -19557,7 +19579,7 @@
         <v>464</v>
       </c>
       <c r="K379" t="n">
-        <v>-12.5</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L379" t="n">
         <v>136.9</v>
@@ -19608,7 +19630,7 @@
         <v>466</v>
       </c>
       <c r="K380" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L380" t="n">
         <v>136.8</v>
@@ -19659,7 +19681,7 @@
         <v>467</v>
       </c>
       <c r="K381" t="n">
-        <v>-5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L381" t="n">
         <v>136.8</v>
@@ -19710,7 +19732,7 @@
         <v>467</v>
       </c>
       <c r="K382" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L382" t="n">
         <v>136.7</v>
@@ -19761,7 +19783,7 @@
         <v>468</v>
       </c>
       <c r="K383" t="n">
-        <v>-5.263157894736842</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L383" t="n">
         <v>136.8</v>
@@ -19812,7 +19834,7 @@
         <v>468</v>
       </c>
       <c r="K384" t="n">
-        <v>5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L384" t="n">
         <v>136.9</v>
@@ -19863,7 +19885,7 @@
         <v>469</v>
       </c>
       <c r="K385" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L385" t="n">
         <v>137</v>
@@ -19914,7 +19936,7 @@
         <v>469</v>
       </c>
       <c r="K386" t="n">
-        <v>-6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L386" t="n">
         <v>137</v>
@@ -19965,7 +19987,7 @@
         <v>469</v>
       </c>
       <c r="K387" t="n">
-        <v>-6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L387" t="n">
         <v>137.1</v>
@@ -20016,7 +20038,7 @@
         <v>470</v>
       </c>
       <c r="K388" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L388" t="n">
         <v>137.3</v>
@@ -20067,7 +20089,7 @@
         <v>470</v>
       </c>
       <c r="K389" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L389" t="n">
         <v>137.5</v>
@@ -20118,7 +20140,7 @@
         <v>470</v>
       </c>
       <c r="K390" t="n">
-        <v>-7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L390" t="n">
         <v>137.5</v>
@@ -20220,7 +20242,7 @@
         <v>472</v>
       </c>
       <c r="K392" t="n">
-        <v>-16.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L392" t="n">
         <v>137.4</v>
@@ -20271,7 +20293,7 @@
         <v>472</v>
       </c>
       <c r="K393" t="n">
-        <v>-9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L393" t="n">
         <v>137.2</v>
@@ -20373,7 +20395,7 @@
         <v>473</v>
       </c>
       <c r="K395" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L395" t="n">
         <v>137.1</v>
@@ -20475,7 +20497,7 @@
         <v>473</v>
       </c>
       <c r="K397" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L397" t="n">
         <v>137.1</v>
@@ -20526,7 +20548,7 @@
         <v>473</v>
       </c>
       <c r="K398" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L398" t="n">
         <v>137</v>
@@ -20577,7 +20599,7 @@
         <v>473</v>
       </c>
       <c r="K399" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L399" t="n">
         <v>136.9</v>
@@ -20628,7 +20650,7 @@
         <v>473</v>
       </c>
       <c r="K400" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L400" t="n">
         <v>136.8</v>
@@ -20679,7 +20701,7 @@
         <v>473</v>
       </c>
       <c r="K401" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L401" t="n">
         <v>136.8</v>
@@ -20730,7 +20752,7 @@
         <v>473</v>
       </c>
       <c r="K402" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L402" t="n">
         <v>136.9</v>
@@ -20780,9 +20802,7 @@
       <c r="J403" t="n">
         <v>473</v>
       </c>
-      <c r="K403" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>137</v>
       </c>
@@ -20832,7 +20852,7 @@
         <v>474</v>
       </c>
       <c r="K404" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L404" t="n">
         <v>136.9</v>
@@ -20883,7 +20903,7 @@
         <v>476</v>
       </c>
       <c r="K405" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L405" t="n">
         <v>137</v>
@@ -20934,7 +20954,7 @@
         <v>478</v>
       </c>
       <c r="K406" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L406" t="n">
         <v>136.9</v>
@@ -20985,7 +21005,7 @@
         <v>478</v>
       </c>
       <c r="K407" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L407" t="n">
         <v>136.8</v>
@@ -21036,7 +21056,7 @@
         <v>480</v>
       </c>
       <c r="K408" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L408" t="n">
         <v>136.9</v>
@@ -21087,7 +21107,7 @@
         <v>482</v>
       </c>
       <c r="K409" t="n">
-        <v>-16.66666666666666</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L409" t="n">
         <v>136.8</v>
@@ -21138,7 +21158,7 @@
         <v>489</v>
       </c>
       <c r="K410" t="n">
-        <v>26.31578947368421</v>
+        <v>37.5</v>
       </c>
       <c r="L410" t="n">
         <v>137.4</v>
@@ -21189,7 +21209,7 @@
         <v>489</v>
       </c>
       <c r="K411" t="n">
-        <v>33.33333333333333</v>
+        <v>37.5</v>
       </c>
       <c r="L411" t="n">
         <v>138</v>
@@ -21240,7 +21260,7 @@
         <v>491</v>
       </c>
       <c r="K412" t="n">
-        <v>26.31578947368421</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L412" t="n">
         <v>138.4</v>
@@ -21291,7 +21311,7 @@
         <v>491</v>
       </c>
       <c r="K413" t="n">
-        <v>26.31578947368421</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L413" t="n">
         <v>138.8</v>
@@ -21342,7 +21362,7 @@
         <v>493</v>
       </c>
       <c r="K414" t="n">
-        <v>30</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L414" t="n">
         <v>139.5</v>
@@ -21393,7 +21413,7 @@
         <v>495</v>
       </c>
       <c r="K415" t="n">
-        <v>36.36363636363637</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L415" t="n">
         <v>140.2</v>
@@ -21444,7 +21464,7 @@
         <v>496</v>
       </c>
       <c r="K416" t="n">
-        <v>30.43478260869566</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L416" t="n">
         <v>141</v>
@@ -21495,7 +21515,7 @@
         <v>496</v>
       </c>
       <c r="K417" t="n">
-        <v>30.43478260869566</v>
+        <v>37.5</v>
       </c>
       <c r="L417" t="n">
         <v>141.8</v>
@@ -21546,7 +21566,7 @@
         <v>497</v>
       </c>
       <c r="K418" t="n">
-        <v>25</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L418" t="n">
         <v>142.3</v>
@@ -21597,7 +21617,7 @@
         <v>498</v>
       </c>
       <c r="K419" t="n">
-        <v>28</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L419" t="n">
         <v>143.1</v>
@@ -21648,7 +21668,7 @@
         <v>498</v>
       </c>
       <c r="K420" t="n">
-        <v>28</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L420" t="n">
         <v>143.2</v>
@@ -21699,7 +21719,7 @@
         <v>499</v>
       </c>
       <c r="K421" t="n">
-        <v>23.07692307692308</v>
+        <v>25</v>
       </c>
       <c r="L421" t="n">
         <v>143.2</v>
@@ -21750,7 +21770,7 @@
         <v>500</v>
       </c>
       <c r="K422" t="n">
-        <v>25.92592592592592</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L422" t="n">
         <v>143.5</v>
@@ -21801,7 +21821,7 @@
         <v>501</v>
       </c>
       <c r="K423" t="n">
-        <v>21.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="L423" t="n">
         <v>143.7</v>
@@ -21852,7 +21872,7 @@
         <v>501</v>
       </c>
       <c r="K424" t="n">
-        <v>25.92592592592592</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L424" t="n">
         <v>143.7</v>
@@ -21903,7 +21923,7 @@
         <v>501</v>
       </c>
       <c r="K425" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="L425" t="n">
         <v>143.5</v>
@@ -21954,7 +21974,7 @@
         <v>501</v>
       </c>
       <c r="K426" t="n">
-        <v>30.43478260869566</v>
+        <v>-20</v>
       </c>
       <c r="L426" t="n">
         <v>143.4</v>
@@ -22005,7 +22025,7 @@
         <v>501</v>
       </c>
       <c r="K427" t="n">
-        <v>30.43478260869566</v>
+        <v>0</v>
       </c>
       <c r="L427" t="n">
         <v>143.3</v>
@@ -22056,7 +22076,7 @@
         <v>502</v>
       </c>
       <c r="K428" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L428" t="n">
         <v>143.4</v>
@@ -22107,7 +22127,7 @@
         <v>503</v>
       </c>
       <c r="K429" t="n">
-        <v>33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L429" t="n">
         <v>143.3</v>
@@ -22158,7 +22178,7 @@
         <v>504</v>
       </c>
       <c r="K430" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L430" t="n">
         <v>143.3</v>
@@ -22209,7 +22229,7 @@
         <v>505</v>
       </c>
       <c r="K431" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L431" t="n">
         <v>143.3</v>
@@ -22260,7 +22280,7 @@
         <v>505</v>
       </c>
       <c r="K432" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L432" t="n">
         <v>143.2</v>
@@ -22311,7 +22331,7 @@
         <v>505</v>
       </c>
       <c r="K433" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L433" t="n">
         <v>143.2</v>
@@ -22413,7 +22433,7 @@
         <v>505</v>
       </c>
       <c r="K435" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L435" t="n">
         <v>143.2</v>
@@ -22464,7 +22484,7 @@
         <v>505</v>
       </c>
       <c r="K436" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L436" t="n">
         <v>143.2</v>
@@ -22515,7 +22535,7 @@
         <v>505</v>
       </c>
       <c r="K437" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L437" t="n">
         <v>143.2</v>
@@ -22566,7 +22586,7 @@
         <v>506</v>
       </c>
       <c r="K438" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L438" t="n">
         <v>143</v>
@@ -22617,7 +22637,7 @@
         <v>506</v>
       </c>
       <c r="K439" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L439" t="n">
         <v>142.9</v>
@@ -22668,7 +22688,7 @@
         <v>507</v>
       </c>
       <c r="K440" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L440" t="n">
         <v>142.8</v>
@@ -22719,7 +22739,7 @@
         <v>508</v>
       </c>
       <c r="K441" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L441" t="n">
         <v>142.7</v>
@@ -22770,7 +22790,7 @@
         <v>509</v>
       </c>
       <c r="K442" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L442" t="n">
         <v>142.5</v>
@@ -22821,7 +22841,7 @@
         <v>510</v>
       </c>
       <c r="K443" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L443" t="n">
         <v>142.2</v>
@@ -22872,7 +22892,7 @@
         <v>512</v>
       </c>
       <c r="K444" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L444" t="n">
         <v>142.1</v>
@@ -22923,7 +22943,7 @@
         <v>514</v>
       </c>
       <c r="K445" t="n">
-        <v>-23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L445" t="n">
         <v>141.8</v>
@@ -23025,7 +23045,7 @@
         <v>518</v>
       </c>
       <c r="K447" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L447" t="n">
         <v>141.7</v>
@@ -23076,7 +23096,7 @@
         <v>518</v>
       </c>
       <c r="K448" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L448" t="n">
         <v>141.7</v>
@@ -23127,7 +23147,7 @@
         <v>519</v>
       </c>
       <c r="K449" t="n">
-        <v>-12.5</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L449" t="n">
         <v>141.6</v>
@@ -23178,7 +23198,7 @@
         <v>520</v>
       </c>
       <c r="K450" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L450" t="n">
         <v>141.5</v>
@@ -23229,7 +23249,7 @@
         <v>520</v>
       </c>
       <c r="K451" t="n">
-        <v>-6.666666666666667</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L451" t="n">
         <v>141.5</v>
@@ -23280,7 +23300,7 @@
         <v>520</v>
       </c>
       <c r="K452" t="n">
-        <v>-6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L452" t="n">
         <v>141.6</v>
@@ -23331,7 +23351,7 @@
         <v>522</v>
       </c>
       <c r="K453" t="n">
-        <v>-17.64705882352941</v>
+        <v>-20</v>
       </c>
       <c r="L453" t="n">
         <v>141.6</v>
@@ -23382,7 +23402,7 @@
         <v>522</v>
       </c>
       <c r="K454" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L454" t="n">
         <v>141.4</v>
@@ -23433,7 +23453,7 @@
         <v>527</v>
       </c>
       <c r="K455" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L455" t="n">
         <v>141.9</v>
@@ -23484,7 +23504,7 @@
         <v>529</v>
       </c>
       <c r="K456" t="n">
-        <v>16.66666666666666</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L456" t="n">
         <v>142.3</v>
@@ -23535,7 +23555,7 @@
         <v>529</v>
       </c>
       <c r="K457" t="n">
-        <v>16.66666666666666</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L457" t="n">
         <v>142.8</v>
@@ -23586,7 +23606,7 @@
         <v>531</v>
       </c>
       <c r="K458" t="n">
-        <v>28</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L458" t="n">
         <v>143.5</v>
@@ -23637,7 +23657,7 @@
         <v>533</v>
       </c>
       <c r="K459" t="n">
-        <v>33.33333333333333</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L459" t="n">
         <v>144.5</v>
@@ -23688,7 +23708,7 @@
         <v>533</v>
       </c>
       <c r="K460" t="n">
-        <v>30.76923076923077</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L460" t="n">
         <v>145.4</v>
@@ -23739,7 +23759,7 @@
         <v>533</v>
       </c>
       <c r="K461" t="n">
-        <v>36</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L461" t="n">
         <v>146.3</v>
@@ -23790,7 +23810,7 @@
         <v>533</v>
       </c>
       <c r="K462" t="n">
-        <v>41.66666666666667</v>
+        <v>100</v>
       </c>
       <c r="L462" t="n">
         <v>147.2</v>
@@ -23841,7 +23861,7 @@
         <v>533</v>
       </c>
       <c r="K463" t="n">
-        <v>47.82608695652174</v>
+        <v>100</v>
       </c>
       <c r="L463" t="n">
         <v>148.3</v>
@@ -23892,7 +23912,7 @@
         <v>536</v>
       </c>
       <c r="K464" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L464" t="n">
         <v>149.1</v>
@@ -23943,7 +23963,7 @@
         <v>537</v>
       </c>
       <c r="K465" t="n">
-        <v>39.1304347826087</v>
+        <v>25</v>
       </c>
       <c r="L465" t="n">
         <v>149.5</v>
@@ -23994,7 +24014,7 @@
         <v>537</v>
       </c>
       <c r="K466" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L466" t="n">
         <v>149.7</v>
@@ -24045,7 +24065,7 @@
         <v>539</v>
       </c>
       <c r="K467" t="n">
-        <v>42.85714285714285</v>
+        <v>25</v>
       </c>
       <c r="L467" t="n">
         <v>150.1</v>
@@ -24096,7 +24116,7 @@
         <v>540</v>
       </c>
       <c r="K468" t="n">
-        <v>36.36363636363637</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L468" t="n">
         <v>150.2</v>
@@ -24147,7 +24167,7 @@
         <v>540</v>
       </c>
       <c r="K469" t="n">
-        <v>42.85714285714285</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L469" t="n">
         <v>150.1</v>
@@ -24198,7 +24218,7 @@
         <v>541</v>
       </c>
       <c r="K470" t="n">
-        <v>42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="L470" t="n">
         <v>150.1</v>
@@ -24249,7 +24269,7 @@
         <v>543</v>
       </c>
       <c r="K471" t="n">
-        <v>30.43478260869566</v>
+        <v>-20</v>
       </c>
       <c r="L471" t="n">
         <v>149.9</v>
@@ -24300,7 +24320,7 @@
         <v>544</v>
       </c>
       <c r="K472" t="n">
-        <v>33.33333333333333</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L472" t="n">
         <v>149.8</v>
@@ -24351,7 +24371,7 @@
         <v>546</v>
       </c>
       <c r="K473" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L473" t="n">
         <v>149.5</v>
@@ -24402,7 +24422,7 @@
         <v>546</v>
       </c>
       <c r="K474" t="n">
-        <v>33.33333333333333</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L474" t="n">
         <v>149.5</v>
@@ -24453,7 +24473,7 @@
         <v>546</v>
       </c>
       <c r="K475" t="n">
-        <v>15.78947368421053</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L475" t="n">
         <v>149.4</v>
@@ -24504,7 +24524,7 @@
         <v>546</v>
       </c>
       <c r="K476" t="n">
-        <v>5.88235294117647</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L476" t="n">
         <v>149.3</v>
@@ -24555,7 +24575,7 @@
         <v>547</v>
       </c>
       <c r="K477" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L477" t="n">
         <v>148.9</v>
@@ -24606,7 +24626,7 @@
         <v>548</v>
       </c>
       <c r="K478" t="n">
-        <v>-17.64705882352941</v>
+        <v>-50</v>
       </c>
       <c r="L478" t="n">
         <v>148.5</v>
@@ -24657,7 +24677,7 @@
         <v>548</v>
       </c>
       <c r="K479" t="n">
-        <v>-33.33333333333333</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L479" t="n">
         <v>148.1</v>
@@ -24708,7 +24728,7 @@
         <v>549</v>
       </c>
       <c r="K480" t="n">
-        <v>-37.5</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L480" t="n">
         <v>147.5</v>
@@ -24759,7 +24779,7 @@
         <v>550</v>
       </c>
       <c r="K481" t="n">
-        <v>-41.17647058823529</v>
+        <v>-100</v>
       </c>
       <c r="L481" t="n">
         <v>147</v>
@@ -24810,7 +24830,7 @@
         <v>550</v>
       </c>
       <c r="K482" t="n">
-        <v>-41.17647058823529</v>
+        <v>-100</v>
       </c>
       <c r="L482" t="n">
         <v>146.4</v>
@@ -24861,7 +24881,7 @@
         <v>551</v>
       </c>
       <c r="K483" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L483" t="n">
         <v>146.1</v>
@@ -24912,7 +24932,7 @@
         <v>553</v>
       </c>
       <c r="K484" t="n">
-        <v>-29.41176470588236</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L484" t="n">
         <v>145.6</v>
@@ -24963,7 +24983,7 @@
         <v>556</v>
       </c>
       <c r="K485" t="n">
-        <v>-15.78947368421053</v>
+        <v>-20</v>
       </c>
       <c r="L485" t="n">
         <v>145.4</v>
@@ -25014,7 +25034,7 @@
         <v>560</v>
       </c>
       <c r="K486" t="n">
-        <v>-30.43478260869566</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L486" t="n">
         <v>144.8</v>
@@ -25065,7 +25085,7 @@
         <v>560</v>
       </c>
       <c r="K487" t="n">
-        <v>-42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L487" t="n">
         <v>144.3</v>
@@ -25116,7 +25136,7 @@
         <v>560</v>
       </c>
       <c r="K488" t="n">
-        <v>-40</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L488" t="n">
         <v>143.9</v>
@@ -25167,7 +25187,7 @@
         <v>563</v>
       </c>
       <c r="K489" t="n">
-        <v>-21.73913043478261</v>
+        <v>0</v>
       </c>
       <c r="L489" t="n">
         <v>143.8</v>
@@ -25218,7 +25238,7 @@
         <v>563</v>
       </c>
       <c r="K490" t="n">
-        <v>-27.27272727272727</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L490" t="n">
         <v>143.8</v>
@@ -25269,7 +25289,7 @@
         <v>564</v>
       </c>
       <c r="K491" t="n">
-        <v>-23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L491" t="n">
         <v>143.8</v>
@@ -25320,7 +25340,7 @@
         <v>565</v>
       </c>
       <c r="K492" t="n">
-        <v>-23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L492" t="n">
         <v>143.9</v>
@@ -25371,7 +25391,7 @@
         <v>567</v>
       </c>
       <c r="K493" t="n">
-        <v>-23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L493" t="n">
         <v>143.7</v>
@@ -25422,7 +25442,7 @@
         <v>567</v>
       </c>
       <c r="K494" t="n">
-        <v>-23.80952380952381</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L494" t="n">
         <v>143.7</v>
@@ -25473,7 +25493,7 @@
         <v>567</v>
       </c>
       <c r="K495" t="n">
-        <v>-23.80952380952381</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L495" t="n">
         <v>143.4</v>
@@ -25524,7 +25544,7 @@
         <v>567</v>
       </c>
       <c r="K496" t="n">
-        <v>-23.80952380952381</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L496" t="n">
         <v>143.5</v>
@@ -25575,7 +25595,7 @@
         <v>567</v>
       </c>
       <c r="K497" t="n">
-        <v>-20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L497" t="n">
         <v>143.6</v>
@@ -25626,7 +25646,7 @@
         <v>567</v>
       </c>
       <c r="K498" t="n">
-        <v>-15.78947368421053</v>
+        <v>-50</v>
       </c>
       <c r="L498" t="n">
         <v>143.7</v>
@@ -25677,7 +25697,7 @@
         <v>567</v>
       </c>
       <c r="K499" t="n">
-        <v>-15.78947368421053</v>
+        <v>-50</v>
       </c>
       <c r="L499" t="n">
         <v>143.5</v>
@@ -25728,7 +25748,7 @@
         <v>568</v>
       </c>
       <c r="K500" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L500" t="n">
         <v>143.4</v>
@@ -25779,7 +25799,7 @@
         <v>568</v>
       </c>
       <c r="K501" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L501" t="n">
         <v>143.4</v>
@@ -25830,7 +25850,7 @@
         <v>569</v>
       </c>
       <c r="K502" t="n">
-        <v>5.263157894736842</v>
+        <v>100</v>
       </c>
       <c r="L502" t="n">
         <v>143.4</v>
@@ -25881,7 +25901,7 @@
         <v>569</v>
       </c>
       <c r="K503" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L503" t="n">
         <v>143.6</v>
@@ -25983,7 +26003,7 @@
         <v>572</v>
       </c>
       <c r="K505" t="n">
-        <v>-12.5</v>
+        <v>20</v>
       </c>
       <c r="L505" t="n">
         <v>143.7</v>
@@ -26034,7 +26054,7 @@
         <v>573</v>
       </c>
       <c r="K506" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L506" t="n">
         <v>143.7</v>
@@ -26085,7 +26105,7 @@
         <v>574</v>
       </c>
       <c r="K507" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L507" t="n">
         <v>143.6</v>
@@ -26136,7 +26156,7 @@
         <v>575</v>
       </c>
       <c r="K508" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L508" t="n">
         <v>143.6</v>
@@ -26187,7 +26207,7 @@
         <v>575</v>
       </c>
       <c r="K509" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L509" t="n">
         <v>143.6</v>
@@ -26238,7 +26258,7 @@
         <v>575</v>
       </c>
       <c r="K510" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L510" t="n">
         <v>143.5</v>
@@ -26289,7 +26309,7 @@
         <v>576</v>
       </c>
       <c r="K511" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L511" t="n">
         <v>143.5</v>
@@ -26340,7 +26360,7 @@
         <v>576</v>
       </c>
       <c r="K512" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L512" t="n">
         <v>143.4</v>
@@ -26391,7 +26411,7 @@
         <v>578</v>
       </c>
       <c r="K513" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L513" t="n">
         <v>143.1</v>
@@ -26442,7 +26462,7 @@
         <v>579</v>
       </c>
       <c r="K514" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L514" t="n">
         <v>143.1</v>
@@ -26493,7 +26513,7 @@
         <v>580</v>
       </c>
       <c r="K515" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L515" t="n">
         <v>142.9</v>
@@ -26544,7 +26564,7 @@
         <v>580</v>
       </c>
       <c r="K516" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L516" t="n">
         <v>142.8</v>
@@ -26595,7 +26615,7 @@
         <v>580</v>
       </c>
       <c r="K517" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L517" t="n">
         <v>142.8</v>
@@ -26646,7 +26666,7 @@
         <v>580</v>
       </c>
       <c r="K518" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L518" t="n">
         <v>142.7</v>
@@ -26697,7 +26717,7 @@
         <v>581</v>
       </c>
       <c r="K519" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L519" t="n">
         <v>142.5</v>
@@ -26748,7 +26768,7 @@
         <v>583</v>
       </c>
       <c r="K520" t="n">
-        <v>-33.33333333333333</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L520" t="n">
         <v>142.1</v>
@@ -26799,7 +26819,7 @@
         <v>583</v>
       </c>
       <c r="K521" t="n">
-        <v>-33.33333333333333</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L521" t="n">
         <v>141.6</v>
@@ -26901,7 +26921,7 @@
         <v>585</v>
       </c>
       <c r="K523" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L523" t="n">
         <v>141.1</v>
@@ -26952,7 +26972,7 @@
         <v>587</v>
       </c>
       <c r="K524" t="n">
-        <v>-25</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L524" t="n">
         <v>140.7</v>
@@ -27003,7 +27023,7 @@
         <v>587</v>
       </c>
       <c r="K525" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L525" t="n">
         <v>140.4</v>
@@ -27054,7 +27074,7 @@
         <v>588</v>
       </c>
       <c r="K526" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L526" t="n">
         <v>140.2</v>
@@ -27105,7 +27125,7 @@
         <v>589</v>
       </c>
       <c r="K527" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L527" t="n">
         <v>139.9</v>
@@ -27156,7 +27176,7 @@
         <v>589</v>
       </c>
       <c r="K528" t="n">
-        <v>-28.57142857142857</v>
+        <v>-25</v>
       </c>
       <c r="L528" t="n">
         <v>139.6</v>
@@ -27207,7 +27227,7 @@
         <v>589</v>
       </c>
       <c r="K529" t="n">
-        <v>-28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L529" t="n">
         <v>139.4</v>
@@ -27258,7 +27278,7 @@
         <v>590</v>
       </c>
       <c r="K530" t="n">
-        <v>-20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L530" t="n">
         <v>139.5</v>
@@ -27309,7 +27329,7 @@
         <v>591</v>
       </c>
       <c r="K531" t="n">
-        <v>-33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L531" t="n">
         <v>139.5</v>
@@ -27411,7 +27431,7 @@
         <v>591</v>
       </c>
       <c r="K533" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L533" t="n">
         <v>139.2</v>
@@ -27462,7 +27482,7 @@
         <v>592</v>
       </c>
       <c r="K534" t="n">
-        <v>-23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L534" t="n">
         <v>139.3</v>
@@ -27513,7 +27533,7 @@
         <v>593</v>
       </c>
       <c r="K535" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L535" t="n">
         <v>139.5</v>
@@ -27564,7 +27584,7 @@
         <v>593</v>
       </c>
       <c r="K536" t="n">
-        <v>-7.692307692307693</v>
+        <v>50</v>
       </c>
       <c r="L536" t="n">
         <v>139.6</v>
@@ -27615,7 +27635,7 @@
         <v>593</v>
       </c>
       <c r="K537" t="n">
-        <v>-7.692307692307693</v>
+        <v>50</v>
       </c>
       <c r="L537" t="n">
         <v>139.8</v>
@@ -27666,7 +27686,7 @@
         <v>594</v>
       </c>
       <c r="K538" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L538" t="n">
         <v>140.1</v>
@@ -27717,7 +27737,7 @@
         <v>594</v>
       </c>
       <c r="K539" t="n">
-        <v>7.692307692307693</v>
+        <v>50</v>
       </c>
       <c r="L539" t="n">
         <v>140.4</v>
@@ -27768,7 +27788,7 @@
         <v>596</v>
       </c>
       <c r="K540" t="n">
-        <v>38.46153846153847</v>
+        <v>100</v>
       </c>
       <c r="L540" t="n">
         <v>140.8</v>
@@ -27819,7 +27839,7 @@
         <v>596</v>
       </c>
       <c r="K541" t="n">
-        <v>38.46153846153847</v>
+        <v>100</v>
       </c>
       <c r="L541" t="n">
         <v>141.3</v>
@@ -27870,7 +27890,7 @@
         <v>598</v>
       </c>
       <c r="K542" t="n">
-        <v>14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L542" t="n">
         <v>141.6</v>
@@ -27921,7 +27941,7 @@
         <v>598</v>
       </c>
       <c r="K543" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L543" t="n">
         <v>141.9</v>
@@ -27972,7 +27992,7 @@
         <v>598</v>
       </c>
       <c r="K544" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L544" t="n">
         <v>142.1</v>
@@ -28023,7 +28043,7 @@
         <v>598</v>
       </c>
       <c r="K545" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L545" t="n">
         <v>142.2</v>
@@ -28074,7 +28094,7 @@
         <v>599</v>
       </c>
       <c r="K546" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L546" t="n">
         <v>142.2</v>
@@ -28125,7 +28145,7 @@
         <v>600</v>
       </c>
       <c r="K547" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L547" t="n">
         <v>142.3</v>
@@ -28176,7 +28196,7 @@
         <v>601</v>
       </c>
       <c r="K548" t="n">
-        <v>16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L548" t="n">
         <v>142.2</v>
@@ -28227,7 +28247,7 @@
         <v>601</v>
       </c>
       <c r="K549" t="n">
-        <v>16.66666666666666</v>
+        <v>-60</v>
       </c>
       <c r="L549" t="n">
         <v>142.1</v>
@@ -28278,7 +28298,7 @@
         <v>602</v>
       </c>
       <c r="K550" t="n">
-        <v>16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L550" t="n">
         <v>141.9</v>
@@ -28329,7 +28349,7 @@
         <v>604</v>
       </c>
       <c r="K551" t="n">
-        <v>38.46153846153847</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L551" t="n">
         <v>141.9</v>
@@ -28431,7 +28451,7 @@
         <v>607</v>
       </c>
       <c r="K553" t="n">
-        <v>25</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L553" t="n">
         <v>142.3</v>
@@ -28482,7 +28502,7 @@
         <v>609</v>
       </c>
       <c r="K554" t="n">
-        <v>5.88235294117647</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L554" t="n">
         <v>142.2</v>
@@ -28584,7 +28604,7 @@
         <v>609</v>
       </c>
       <c r="K556" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L556" t="n">
         <v>142.1</v>
@@ -28635,7 +28655,7 @@
         <v>611</v>
       </c>
       <c r="K557" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L557" t="n">
         <v>142.2</v>
@@ -28686,7 +28706,7 @@
         <v>611</v>
       </c>
       <c r="K558" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L558" t="n">
         <v>142.4</v>
@@ -28737,7 +28757,7 @@
         <v>611</v>
       </c>
       <c r="K559" t="n">
-        <v>5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L559" t="n">
         <v>142.6</v>
@@ -28788,7 +28808,7 @@
         <v>612</v>
       </c>
       <c r="K560" t="n">
-        <v>-12.5</v>
+        <v>-25</v>
       </c>
       <c r="L560" t="n">
         <v>142.6</v>
@@ -28839,7 +28859,7 @@
         <v>613</v>
       </c>
       <c r="K561" t="n">
-        <v>-5.88235294117647</v>
+        <v>-25</v>
       </c>
       <c r="L561" t="n">
         <v>142.5</v>
@@ -28890,7 +28910,7 @@
         <v>614</v>
       </c>
       <c r="K562" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L562" t="n">
         <v>142.2</v>
@@ -28941,7 +28961,7 @@
         <v>615</v>
       </c>
       <c r="K563" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L563" t="n">
         <v>142</v>
@@ -28992,7 +29012,7 @@
         <v>616</v>
       </c>
       <c r="K564" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L564" t="n">
         <v>141.9</v>
@@ -29043,7 +29063,7 @@
         <v>617</v>
       </c>
       <c r="K565" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L565" t="n">
         <v>141.9</v>
@@ -29094,7 +29114,7 @@
         <v>617</v>
       </c>
       <c r="K566" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L566" t="n">
         <v>141.9</v>
@@ -29145,7 +29165,7 @@
         <v>618</v>
       </c>
       <c r="K567" t="n">
-        <v>-11.11111111111111</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L567" t="n">
         <v>141.6</v>
@@ -29196,7 +29216,7 @@
         <v>618</v>
       </c>
       <c r="K568" t="n">
-        <v>-5.88235294117647</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L568" t="n">
         <v>141.3</v>
@@ -29247,7 +29267,7 @@
         <v>618</v>
       </c>
       <c r="K569" t="n">
-        <v>-5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L569" t="n">
         <v>141</v>

--- a/BackTest/2019-11-02 BackTest FX.xlsx
+++ b/BackTest/2019-11-02 BackTest FX.xlsx
@@ -591,17 +591,13 @@
         <v>133.3166666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>131</v>
-      </c>
-      <c r="K6" t="n">
-        <v>131</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -630,22 +626,14 @@
         <v>133.2666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>130</v>
-      </c>
-      <c r="K7" t="n">
-        <v>131</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -673,22 +661,14 @@
         <v>133.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>130</v>
-      </c>
-      <c r="K8" t="n">
-        <v>131</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -716,22 +696,14 @@
         <v>133.15</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>128</v>
-      </c>
-      <c r="K9" t="n">
-        <v>131</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -759,22 +731,14 @@
         <v>133.1166666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>129</v>
-      </c>
-      <c r="K10" t="n">
-        <v>131</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -802,22 +766,14 @@
         <v>133.0666666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>129</v>
-      </c>
-      <c r="K11" t="n">
-        <v>131</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -854,13 +810,9 @@
         <v>129</v>
       </c>
       <c r="K12" t="n">
-        <v>131</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -897,11 +849,11 @@
         <v>129</v>
       </c>
       <c r="K13" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -937,14 +889,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K14" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -983,11 +935,11 @@
         <v>132</v>
       </c>
       <c r="K15" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -1023,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K16" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1060,16 +1012,14 @@
         <v>133.1333333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>136</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1103,16 +1053,14 @@
         <v>133.3</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>139</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1153,7 +1101,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1194,7 +1142,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1235,7 +1183,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1276,7 +1224,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1317,7 +1265,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1354,11 +1302,11 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1395,11 +1343,11 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1440,7 +1388,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1481,7 +1429,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1522,7 +1470,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1563,7 +1511,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1604,7 +1552,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1645,7 +1593,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1686,7 +1634,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1727,7 +1675,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1768,7 +1716,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1809,7 +1757,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1850,7 +1798,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1891,7 +1839,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1932,7 +1880,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1973,7 +1921,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2014,7 +1962,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2055,7 +2003,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2096,7 +2044,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2137,7 +2085,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2178,7 +2126,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2219,7 +2167,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2260,7 +2208,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2301,7 +2249,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2342,7 +2290,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2383,7 +2331,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2424,7 +2372,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2465,7 +2413,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2506,7 +2454,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2547,7 +2495,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2588,7 +2536,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2629,7 +2577,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2670,7 +2618,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2711,7 +2659,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2752,7 +2700,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2793,7 +2741,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2834,7 +2782,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2875,7 +2823,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2916,7 +2864,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2957,7 +2905,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2998,7 +2946,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3039,7 +2987,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3080,7 +3028,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3121,7 +3069,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3162,7 +3110,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3203,7 +3151,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3244,7 +3192,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3285,7 +3233,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3326,7 +3274,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3367,7 +3315,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3408,7 +3356,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3449,7 +3397,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3490,7 +3438,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3531,7 +3479,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3572,7 +3520,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3613,7 +3561,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3654,7 +3602,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3695,7 +3643,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3736,7 +3684,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3777,7 +3725,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3818,7 +3766,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3859,7 +3807,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3900,7 +3848,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3941,7 +3889,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3982,7 +3930,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4023,7 +3971,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4064,7 +4012,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4105,7 +4053,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4146,7 +4094,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4187,7 +4135,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4228,7 +4176,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4269,7 +4217,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4310,7 +4258,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4351,7 +4299,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4392,7 +4340,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4433,7 +4381,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4474,7 +4422,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4515,7 +4463,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4556,7 +4504,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4597,7 +4545,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4638,7 +4586,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4679,7 +4627,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4720,7 +4668,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4761,7 +4709,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4802,7 +4750,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4843,7 +4791,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4884,7 +4832,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4925,7 +4873,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4966,7 +4914,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5007,7 +4955,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5048,7 +4996,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5089,7 +5037,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5130,7 +5078,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5171,7 +5119,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5212,7 +5160,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5253,7 +5201,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5294,7 +5242,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5335,7 +5283,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5376,7 +5324,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5417,7 +5365,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5458,7 +5406,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5499,7 +5447,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5540,7 +5488,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5581,7 +5529,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5622,7 +5570,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5663,7 +5611,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5704,7 +5652,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5745,7 +5693,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5786,7 +5734,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5827,7 +5775,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5868,7 +5816,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5909,7 +5857,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5950,7 +5898,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5991,7 +5939,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -6032,7 +5980,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -6073,7 +6021,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -6114,7 +6062,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -6155,7 +6103,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -6196,7 +6144,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -6237,7 +6185,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6278,7 +6226,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6319,7 +6267,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6360,7 +6308,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6401,7 +6349,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6442,7 +6390,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6483,7 +6431,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6524,7 +6472,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6565,7 +6513,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6606,7 +6554,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6647,7 +6595,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6688,7 +6636,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6729,7 +6677,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6770,7 +6718,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6811,7 +6759,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6852,7 +6800,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6893,7 +6841,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6934,7 +6882,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6975,7 +6923,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -7016,7 +6964,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -7057,7 +7005,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -7098,7 +7046,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -7139,7 +7087,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -7180,7 +7128,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -7221,7 +7169,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -7262,7 +7210,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -7303,7 +7251,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -7344,7 +7292,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -7385,7 +7333,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -7426,7 +7374,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -7467,7 +7415,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -7508,7 +7456,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -7549,7 +7497,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -7590,7 +7538,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -7631,7 +7579,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -7672,7 +7620,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -7713,7 +7661,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -7754,7 +7702,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -7795,7 +7743,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -7836,7 +7784,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -7877,7 +7825,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -7918,7 +7866,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -7959,7 +7907,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -8000,7 +7948,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -8041,7 +7989,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -8082,7 +8030,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -8123,7 +8071,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -8164,7 +8112,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -8205,7 +8153,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -8246,7 +8194,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -8287,7 +8235,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -8328,7 +8276,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -8369,7 +8317,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -8410,7 +8358,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -8451,7 +8399,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -8492,7 +8440,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -8533,7 +8481,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -8574,7 +8522,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -8615,7 +8563,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -8656,7 +8604,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -8697,7 +8645,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -8738,7 +8686,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -8779,7 +8727,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -8820,7 +8768,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -8861,7 +8809,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -8902,7 +8850,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -8943,7 +8891,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -8984,7 +8932,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -9025,7 +8973,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -9066,7 +9014,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -9107,7 +9055,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -9148,7 +9096,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -9189,7 +9137,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -9230,7 +9178,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -9271,7 +9219,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -9312,7 +9260,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -9353,7 +9301,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -9394,7 +9342,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -9435,7 +9383,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -9476,7 +9424,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -9517,7 +9465,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -9558,7 +9506,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -9599,7 +9547,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -9640,7 +9588,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -9681,7 +9629,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -9722,7 +9670,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -9763,7 +9711,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -9804,7 +9752,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -9845,7 +9793,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -9886,7 +9834,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -9927,7 +9875,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -9968,7 +9916,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -10009,7 +9957,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -10050,7 +9998,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -10091,7 +10039,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -10132,7 +10080,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -10173,7 +10121,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -10214,7 +10162,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -10255,7 +10203,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -10296,7 +10244,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -10337,7 +10285,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -10378,7 +10326,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -10419,7 +10367,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -10460,7 +10408,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -10501,7 +10449,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -10542,7 +10490,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -10583,7 +10531,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -10624,7 +10572,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -10665,7 +10613,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -10706,7 +10654,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -10747,7 +10695,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -10788,7 +10736,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -10829,7 +10777,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -10870,7 +10818,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -10911,7 +10859,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -10952,7 +10900,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -10993,7 +10941,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -11034,7 +10982,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -11075,7 +11023,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -11116,7 +11064,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -11157,7 +11105,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -11198,7 +11146,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -11239,7 +11187,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
@@ -11280,7 +11228,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -11321,7 +11269,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
@@ -11362,7 +11310,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -11403,7 +11351,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -11444,7 +11392,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -11485,7 +11433,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -11526,7 +11474,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -11567,7 +11515,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -11608,7 +11556,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -11649,7 +11597,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -11690,7 +11638,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -11731,7 +11679,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -11772,7 +11720,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -11813,7 +11761,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -11854,7 +11802,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -11895,7 +11843,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -11936,7 +11884,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -11977,7 +11925,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -12018,7 +11966,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -12059,7 +12007,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -12100,7 +12048,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -12141,7 +12089,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -12182,7 +12130,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -12223,7 +12171,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -12264,7 +12212,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -12305,7 +12253,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -12346,7 +12294,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -12387,7 +12335,7 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -12428,7 +12376,7 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -12469,7 +12417,7 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -12510,7 +12458,7 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -12551,7 +12499,7 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -12592,7 +12540,7 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -12633,7 +12581,7 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -12674,7 +12622,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -12715,7 +12663,7 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -12756,7 +12704,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -12797,7 +12745,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -12838,7 +12786,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -12879,7 +12827,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -12920,7 +12868,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -12961,7 +12909,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -13002,7 +12950,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -13043,7 +12991,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -13084,7 +13032,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -13125,7 +13073,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -13166,7 +13114,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -13207,7 +13155,7 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -13248,7 +13196,7 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -13289,7 +13237,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -13330,7 +13278,7 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -13371,7 +13319,7 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -13412,7 +13360,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -13453,7 +13401,7 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -13494,7 +13442,7 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -13535,7 +13483,7 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -13576,7 +13524,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -13617,7 +13565,7 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -13658,7 +13606,7 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -13699,7 +13647,7 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -13740,7 +13688,7 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -13781,7 +13729,7 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -13822,7 +13770,7 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
@@ -13863,7 +13811,7 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -13904,7 +13852,7 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -13945,7 +13893,7 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
@@ -13986,7 +13934,7 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
@@ -14027,7 +13975,7 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L333" t="inlineStr">
         <is>
@@ -14068,7 +14016,7 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L334" t="inlineStr">
         <is>
@@ -14109,7 +14057,7 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
@@ -14150,7 +14098,7 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
@@ -14191,7 +14139,7 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L337" t="inlineStr">
         <is>
@@ -14232,7 +14180,7 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
@@ -14273,7 +14221,7 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L339" t="inlineStr">
         <is>
@@ -14314,7 +14262,7 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L340" t="inlineStr">
         <is>
@@ -14355,7 +14303,7 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L341" t="inlineStr">
         <is>
@@ -14396,7 +14344,7 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L342" t="inlineStr">
         <is>
@@ -14437,7 +14385,7 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L343" t="inlineStr">
         <is>
@@ -14478,7 +14426,7 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L344" t="inlineStr">
         <is>
@@ -14519,7 +14467,7 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L345" t="inlineStr">
         <is>
@@ -14560,7 +14508,7 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L346" t="inlineStr">
         <is>
@@ -14601,7 +14549,7 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L347" t="inlineStr">
         <is>
@@ -14642,7 +14590,7 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L348" t="inlineStr">
         <is>
@@ -14683,7 +14631,7 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L349" t="inlineStr">
         <is>
@@ -14724,7 +14672,7 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L350" t="inlineStr">
         <is>
@@ -14765,7 +14713,7 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L351" t="inlineStr">
         <is>
@@ -14806,7 +14754,7 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L352" t="inlineStr">
         <is>
@@ -14847,7 +14795,7 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L353" t="inlineStr">
         <is>
@@ -14888,7 +14836,7 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L354" t="inlineStr">
         <is>
@@ -14929,7 +14877,7 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L355" t="inlineStr">
         <is>
@@ -14970,7 +14918,7 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L356" t="inlineStr">
         <is>
@@ -15011,7 +14959,7 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L357" t="inlineStr">
         <is>
@@ -15052,7 +15000,7 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L358" t="inlineStr">
         <is>
@@ -15093,7 +15041,7 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L359" t="inlineStr">
         <is>
@@ -15134,7 +15082,7 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L360" t="inlineStr">
         <is>
@@ -15175,7 +15123,7 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L361" t="inlineStr">
         <is>
@@ -15216,7 +15164,7 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L362" t="inlineStr">
         <is>
@@ -15257,7 +15205,7 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L363" t="inlineStr">
         <is>
@@ -15298,7 +15246,7 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L364" t="inlineStr">
         <is>
@@ -15339,7 +15287,7 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L365" t="inlineStr">
         <is>
@@ -15380,7 +15328,7 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L366" t="inlineStr">
         <is>
@@ -15421,7 +15369,7 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L367" t="inlineStr">
         <is>
@@ -15462,7 +15410,7 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L368" t="inlineStr">
         <is>
@@ -15503,7 +15451,7 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L369" t="inlineStr">
         <is>
@@ -15544,7 +15492,7 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L370" t="inlineStr">
         <is>
@@ -15585,7 +15533,7 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L371" t="inlineStr">
         <is>
@@ -15626,7 +15574,7 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L372" t="inlineStr">
         <is>
@@ -15667,7 +15615,7 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L373" t="inlineStr">
         <is>
@@ -15708,7 +15656,7 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L374" t="inlineStr">
         <is>
@@ -15749,7 +15697,7 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L375" t="inlineStr">
         <is>
@@ -15790,7 +15738,7 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L376" t="inlineStr">
         <is>
@@ -15831,7 +15779,7 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L377" t="inlineStr">
         <is>
@@ -15872,7 +15820,7 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L378" t="inlineStr">
         <is>
@@ -15913,7 +15861,7 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L379" t="inlineStr">
         <is>
@@ -15954,7 +15902,7 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L380" t="inlineStr">
         <is>
@@ -15995,7 +15943,7 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L381" t="inlineStr">
         <is>
@@ -16036,7 +15984,7 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L382" t="inlineStr">
         <is>
@@ -16077,7 +16025,7 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L383" t="inlineStr">
         <is>
@@ -16118,7 +16066,7 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L384" t="inlineStr">
         <is>
@@ -16159,7 +16107,7 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L385" t="inlineStr">
         <is>
@@ -16200,7 +16148,7 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L386" t="inlineStr">
         <is>
@@ -16241,7 +16189,7 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L387" t="inlineStr">
         <is>
@@ -16282,7 +16230,7 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L388" t="inlineStr">
         <is>
@@ -16323,7 +16271,7 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L389" t="inlineStr">
         <is>
@@ -16364,7 +16312,7 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L390" t="inlineStr">
         <is>
@@ -16405,7 +16353,7 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L391" t="inlineStr">
         <is>
@@ -16446,7 +16394,7 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L392" t="inlineStr">
         <is>
@@ -16487,7 +16435,7 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L393" t="inlineStr">
         <is>
@@ -16528,7 +16476,7 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L394" t="inlineStr">
         <is>
@@ -16569,7 +16517,7 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L395" t="inlineStr">
         <is>
@@ -16610,7 +16558,7 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L396" t="inlineStr">
         <is>
@@ -16651,7 +16599,7 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L397" t="inlineStr">
         <is>
@@ -16692,7 +16640,7 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L398" t="inlineStr">
         <is>
@@ -16733,7 +16681,7 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L399" t="inlineStr">
         <is>
@@ -16774,7 +16722,7 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L400" t="inlineStr">
         <is>
@@ -16815,7 +16763,7 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L401" t="inlineStr">
         <is>
@@ -16856,7 +16804,7 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L402" t="inlineStr">
         <is>
@@ -16897,7 +16845,7 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L403" t="inlineStr">
         <is>
@@ -16938,7 +16886,7 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L404" t="inlineStr">
         <is>
@@ -16979,7 +16927,7 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L405" t="inlineStr">
         <is>
@@ -17020,7 +16968,7 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L406" t="inlineStr">
         <is>
@@ -17061,7 +17009,7 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L407" t="inlineStr">
         <is>
@@ -17102,7 +17050,7 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L408" t="inlineStr">
         <is>
@@ -17143,7 +17091,7 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L409" t="inlineStr">
         <is>
@@ -17184,7 +17132,7 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L410" t="inlineStr">
         <is>
@@ -17225,7 +17173,7 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L411" t="inlineStr">
         <is>
@@ -17266,7 +17214,7 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L412" t="inlineStr">
         <is>
@@ -17307,7 +17255,7 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L413" t="inlineStr">
         <is>
@@ -17348,7 +17296,7 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L414" t="inlineStr">
         <is>
@@ -17389,7 +17337,7 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L415" t="inlineStr">
         <is>
@@ -17430,7 +17378,7 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L416" t="inlineStr">
         <is>
@@ -17471,7 +17419,7 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L417" t="inlineStr">
         <is>
@@ -17512,7 +17460,7 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L418" t="inlineStr">
         <is>
@@ -17553,7 +17501,7 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L419" t="inlineStr">
         <is>
@@ -17594,7 +17542,7 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L420" t="inlineStr">
         <is>
@@ -17635,7 +17583,7 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L421" t="inlineStr">
         <is>
@@ -17676,7 +17624,7 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L422" t="inlineStr">
         <is>
@@ -17717,7 +17665,7 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L423" t="inlineStr">
         <is>
@@ -17758,7 +17706,7 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L424" t="inlineStr">
         <is>
@@ -17799,7 +17747,7 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L425" t="inlineStr">
         <is>
@@ -17840,7 +17788,7 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L426" t="inlineStr">
         <is>
@@ -17881,7 +17829,7 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L427" t="inlineStr">
         <is>
@@ -17922,7 +17870,7 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L428" t="inlineStr">
         <is>
@@ -17963,7 +17911,7 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L429" t="inlineStr">
         <is>
@@ -18004,7 +17952,7 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L430" t="inlineStr">
         <is>
@@ -18045,7 +17993,7 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L431" t="inlineStr">
         <is>
@@ -18086,7 +18034,7 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L432" t="inlineStr">
         <is>
@@ -18127,7 +18075,7 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L433" t="inlineStr">
         <is>
@@ -18168,7 +18116,7 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L434" t="inlineStr">
         <is>
@@ -18209,7 +18157,7 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L435" t="inlineStr">
         <is>
@@ -18250,7 +18198,7 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L436" t="inlineStr">
         <is>
@@ -18291,7 +18239,7 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L437" t="inlineStr">
         <is>
@@ -18332,7 +18280,7 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L438" t="inlineStr">
         <is>
@@ -18373,7 +18321,7 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L439" t="inlineStr">
         <is>
@@ -18414,7 +18362,7 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L440" t="inlineStr">
         <is>
@@ -18455,7 +18403,7 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L441" t="inlineStr">
         <is>
@@ -18496,7 +18444,7 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L442" t="inlineStr">
         <is>
@@ -18537,7 +18485,7 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L443" t="inlineStr">
         <is>
@@ -18578,7 +18526,7 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L444" t="inlineStr">
         <is>
@@ -18619,7 +18567,7 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L445" t="inlineStr">
         <is>
@@ -18660,7 +18608,7 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L446" t="inlineStr">
         <is>
@@ -18701,7 +18649,7 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L447" t="inlineStr">
         <is>
@@ -18742,7 +18690,7 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L448" t="inlineStr">
         <is>
@@ -18783,7 +18731,7 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L449" t="inlineStr">
         <is>
@@ -18824,7 +18772,7 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L450" t="inlineStr">
         <is>
@@ -18865,7 +18813,7 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L451" t="inlineStr">
         <is>
@@ -18906,7 +18854,7 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L452" t="inlineStr">
         <is>
@@ -18947,7 +18895,7 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L453" t="inlineStr">
         <is>
@@ -18988,7 +18936,7 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L454" t="inlineStr">
         <is>
@@ -19029,7 +18977,7 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L455" t="inlineStr">
         <is>
@@ -19070,7 +19018,7 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L456" t="inlineStr">
         <is>
@@ -19111,7 +19059,7 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L457" t="inlineStr">
         <is>
@@ -19152,7 +19100,7 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L458" t="inlineStr">
         <is>
@@ -19193,7 +19141,7 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L459" t="inlineStr">
         <is>
@@ -19234,7 +19182,7 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L460" t="inlineStr">
         <is>
@@ -19271,19 +19219,19 @@
         <v>0</v>
       </c>
       <c r="I461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>1.147671755725191</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -19312,11 +19260,17 @@
         <v>0</v>
       </c>
       <c r="I462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="K462" t="n">
+        <v>129</v>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -19347,11 +19301,17 @@
         <v>0</v>
       </c>
       <c r="I463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="K463" t="n">
+        <v>129</v>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -19382,11 +19342,17 @@
         <v>0</v>
       </c>
       <c r="I464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="K464" t="n">
+        <v>129</v>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -19420,8 +19386,14 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="K465" t="n">
+        <v>129</v>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -19455,8 +19427,14 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="K466" t="n">
+        <v>129</v>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -19490,8 +19468,14 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="K467" t="n">
+        <v>129</v>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -19525,8 +19509,14 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="K468" t="n">
+        <v>129</v>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -19560,8 +19550,14 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="K469" t="n">
+        <v>129</v>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -19595,8 +19591,14 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="K470" t="n">
+        <v>129</v>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -19630,8 +19632,14 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="K471" t="n">
+        <v>129</v>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -19665,8 +19673,14 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="K472" t="n">
+        <v>129</v>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -19700,8 +19714,14 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="K473" t="n">
+        <v>129</v>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -19735,8 +19755,14 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="K474" t="n">
+        <v>129</v>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -19770,8 +19796,14 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="K475" t="n">
+        <v>129</v>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -19805,8 +19837,14 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="K476" t="n">
+        <v>129</v>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -19840,8 +19878,14 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="K477" t="n">
+        <v>129</v>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -19875,8 +19919,14 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="K478" t="n">
+        <v>129</v>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -19910,8 +19960,14 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="K479" t="n">
+        <v>129</v>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -19945,8 +20001,14 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="K480" t="n">
+        <v>129</v>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -19980,8 +20042,14 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="K481" t="n">
+        <v>129</v>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -20015,8 +20083,14 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="K482" t="n">
+        <v>129</v>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -20050,8 +20124,14 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="K483" t="n">
+        <v>129</v>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -20085,8 +20165,14 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="K484" t="n">
+        <v>129</v>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -20120,8 +20206,14 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="K485" t="n">
+        <v>129</v>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -20155,8 +20247,14 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="K486" t="n">
+        <v>129</v>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -20190,8 +20288,14 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="K487" t="n">
+        <v>129</v>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -20225,8 +20329,14 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="K488" t="n">
+        <v>129</v>
+      </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -20260,8 +20370,14 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="K489" t="n">
+        <v>129</v>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -20295,8 +20411,14 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="K490" t="n">
+        <v>129</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -20330,8 +20452,14 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="K491" t="n">
+        <v>129</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -20365,8 +20493,14 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="K492" t="n">
+        <v>129</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -20400,8 +20534,14 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="K493" t="n">
+        <v>129</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -20435,8 +20575,14 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="K494" t="n">
+        <v>129</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -20470,8 +20616,14 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="K495" t="n">
+        <v>129</v>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -20505,8 +20657,14 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="K496" t="n">
+        <v>129</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -20540,8 +20698,14 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="K497" t="n">
+        <v>129</v>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -20575,8 +20739,14 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="K498" t="n">
+        <v>129</v>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -20610,8 +20780,14 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="K499" t="n">
+        <v>129</v>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -20645,8 +20821,14 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="K500" t="n">
+        <v>129</v>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -20680,8 +20862,14 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="K501" t="n">
+        <v>129</v>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -20715,8 +20903,14 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="K502" t="n">
+        <v>129</v>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -20750,8 +20944,14 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="K503" t="n">
+        <v>129</v>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -20785,8 +20985,14 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="K504" t="n">
+        <v>129</v>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -20820,8 +21026,14 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="K505" t="n">
+        <v>129</v>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -20855,8 +21067,14 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="K506" t="n">
+        <v>129</v>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -20890,8 +21108,14 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="K507" t="n">
+        <v>129</v>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -20925,8 +21149,14 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="K508" t="n">
+        <v>129</v>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -20960,8 +21190,14 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="K509" t="n">
+        <v>129</v>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -20995,8 +21231,14 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="K510" t="n">
+        <v>129</v>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -21030,8 +21272,14 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="K511" t="n">
+        <v>129</v>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -21065,8 +21313,14 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="K512" t="n">
+        <v>129</v>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -21100,8 +21354,14 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="K513" t="n">
+        <v>129</v>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -21135,8 +21395,14 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="K514" t="n">
+        <v>129</v>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -21170,8 +21436,14 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="K515" t="n">
+        <v>129</v>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -21205,8 +21477,14 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="K516" t="n">
+        <v>129</v>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -21240,8 +21518,14 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="K517" t="n">
+        <v>129</v>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -21275,8 +21559,14 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="K518" t="n">
+        <v>129</v>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -21310,8 +21600,14 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="K519" t="n">
+        <v>129</v>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -21345,8 +21641,14 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="K520" t="n">
+        <v>129</v>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -21380,8 +21682,14 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="K521" t="n">
+        <v>129</v>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -21415,8 +21723,14 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="K522" t="n">
+        <v>129</v>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -21450,8 +21764,14 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="K523" t="n">
+        <v>129</v>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -21485,8 +21805,14 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="K524" t="n">
+        <v>129</v>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -21520,8 +21846,14 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="K525" t="n">
+        <v>129</v>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -21555,8 +21887,14 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="K526" t="n">
+        <v>129</v>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -21590,8 +21928,14 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="K527" t="n">
+        <v>129</v>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -21625,8 +21969,14 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="K528" t="n">
+        <v>129</v>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -21660,8 +22010,14 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="K529" t="n">
+        <v>129</v>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -21695,8 +22051,14 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="K530" t="n">
+        <v>129</v>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -21730,8 +22092,14 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="K531" t="n">
+        <v>129</v>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -21765,8 +22133,14 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="K532" t="n">
+        <v>129</v>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -21800,8 +22174,14 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="K533" t="n">
+        <v>129</v>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -21835,8 +22215,14 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="K534" t="n">
+        <v>129</v>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -21870,8 +22256,14 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="K535" t="n">
+        <v>129</v>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -21905,8 +22297,14 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="K536" t="n">
+        <v>129</v>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -21940,8 +22338,14 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>129</v>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -21975,8 +22379,14 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="K538" t="n">
+        <v>129</v>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -22010,8 +22420,14 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="K539" t="n">
+        <v>129</v>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -22045,8 +22461,14 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="K540" t="n">
+        <v>129</v>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -22080,8 +22502,14 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="K541" t="n">
+        <v>129</v>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -22115,8 +22543,14 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="K542" t="n">
+        <v>129</v>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -22150,8 +22584,14 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="K543" t="n">
+        <v>129</v>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -22185,8 +22625,14 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="K544" t="n">
+        <v>129</v>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -22220,8 +22666,14 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="K545" t="n">
+        <v>129</v>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -22255,8 +22707,14 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="K546" t="n">
+        <v>129</v>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -22290,8 +22748,14 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="K547" t="n">
+        <v>129</v>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -22325,8 +22789,14 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="K548" t="n">
+        <v>129</v>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-02 BackTest FX.xlsx
+++ b/BackTest/2019-11-02 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>45713.56972450724</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>43478.56972450724</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>133</v>
@@ -521,9 +521,11 @@
         <v>43478.56972450724</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>132</v>
+      </c>
       <c r="J4" t="n">
         <v>133</v>
       </c>
@@ -560,9 +562,11 @@
         <v>43524.62982450724</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>132</v>
+      </c>
       <c r="J5" t="n">
         <v>133</v>
       </c>
@@ -599,10 +603,14 @@
         <v>43524.62982450724</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>133</v>
+      </c>
+      <c r="J6" t="n">
+        <v>133</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -635,8 +643,14 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>133</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -668,8 +682,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>133</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -764,10 +784,14 @@
         <v>45801.79392450724</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>132</v>
+      </c>
+      <c r="J11" t="n">
+        <v>132</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -800,8 +824,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>132</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -830,11 +860,19 @@
         <v>45801.79392450724</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>132</v>
+      </c>
+      <c r="J13" t="n">
+        <v>132</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -863,10 +901,14 @@
         <v>45204.81002450724</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>132</v>
+      </c>
+      <c r="J14" t="n">
+        <v>132</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
@@ -896,15 +938,19 @@
         <v>45213.81002450724</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>131</v>
       </c>
       <c r="J15" t="n">
-        <v>131</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
+        <v>132</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -933,13 +979,13 @@
         <v>45213.81002450724</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>133</v>
       </c>
       <c r="J16" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -974,19 +1020,15 @@
         <v>45213.81002450724</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>133</v>
       </c>
       <c r="J17" t="n">
-        <v>131</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1015,7 +1057,7 @@
         <v>45213.81002450724</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>133</v>
@@ -1023,7 +1065,11 @@
       <c r="J18" t="n">
         <v>133</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1052,7 +1098,7 @@
         <v>45213.81002450724</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>133</v>
@@ -1093,7 +1139,7 @@
         <v>45213.81002450724</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>133</v>
@@ -1101,11 +1147,7 @@
       <c r="J20" t="n">
         <v>133</v>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1134,7 +1176,7 @@
         <v>45214.81002450724</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>133</v>
@@ -1142,7 +1184,11 @@
       <c r="J21" t="n">
         <v>133</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1171,7 +1217,7 @@
         <v>45214.81002450724</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>134</v>
@@ -1212,19 +1258,15 @@
         <v>45214.81002450724</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>134</v>
       </c>
       <c r="J23" t="n">
-        <v>133</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1253,7 +1295,7 @@
         <v>45214.81002450724</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>134</v>
@@ -1261,7 +1303,11 @@
       <c r="J24" t="n">
         <v>134</v>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1290,11 +1336,9 @@
         <v>50329.32169465649</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>134</v>
       </c>
@@ -1331,11 +1375,9 @@
         <v>50329.32169465649</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>134</v>
       </c>
@@ -1372,11 +1414,9 @@
         <v>50329.32169465649</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>134</v>
       </c>
@@ -1530,11 +1570,9 @@
         <v>37718.86896480575</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>134</v>
       </c>
@@ -1610,11 +1648,9 @@
         <v>49441.827334955</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>134</v>
       </c>
@@ -1690,11 +1726,9 @@
         <v>49146.611634955</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>134</v>
       </c>
@@ -2940,11 +2974,9 @@
         <v>-24570.931365045</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>134</v>
       </c>
@@ -2981,11 +3013,9 @@
         <v>-24571.931365045</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>129</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>134</v>
       </c>
@@ -3022,7 +3052,7 @@
         <v>-16416.044865045</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>128</v>
@@ -3063,7 +3093,7 @@
         <v>-16416.044865045</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>129</v>
@@ -3104,7 +3134,7 @@
         <v>-16416.044865045</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>129</v>
@@ -3145,7 +3175,7 @@
         <v>-16416.044865045</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>129</v>
@@ -3186,7 +3216,7 @@
         <v>-10101.917665045</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>129</v>
@@ -3227,7 +3257,7 @@
         <v>-5884.312301887105</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>132</v>
@@ -3268,7 +3298,7 @@
         <v>94631.13789811291</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>133</v>
@@ -3309,7 +3339,7 @@
         <v>126130.8134981129</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>136</v>
@@ -3350,11 +3380,9 @@
         <v>310808.2459981129</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>138</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>134</v>
       </c>
@@ -3976,7 +4004,7 @@
         <v>346682.412566539</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
@@ -3984,15 +4012,13 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.13679104477612</v>
-      </c>
-      <c r="M93" t="n">
-        <v>1.022900763358779</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4017,11 +4043,17 @@
         <v>400353.5807308247</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>134</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4050,11 +4082,17 @@
         <v>369043.5813308248</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>134</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4083,11 +4121,17 @@
         <v>372704.5813308248</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>134</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4116,11 +4160,17 @@
         <v>372704.5813308248</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>134</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4149,11 +4199,17 @@
         <v>355930.2598308247</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>134</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4182,15 +4238,23 @@
         <v>345891.8341308247</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>134</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>1.13679104477612</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1.022900763358779</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4215,7 +4279,7 @@
         <v>344127.5269308247</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4248,7 +4312,7 @@
         <v>344127.5269308247</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4281,7 +4345,7 @@
         <v>274237.1793308248</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4314,7 +4378,7 @@
         <v>195751.2317308247</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4347,7 +4411,7 @@
         <v>197095.7026308247</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4380,7 +4444,7 @@
         <v>197095.7026308247</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4413,7 +4477,7 @@
         <v>201955.7229308247</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4446,7 +4510,7 @@
         <v>201955.7229308247</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4479,7 +4543,7 @@
         <v>201955.7229308247</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4512,7 +4576,7 @@
         <v>223293.4060308247</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4545,7 +4609,7 @@
         <v>205546.3684308247</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4578,7 +4642,7 @@
         <v>207506.7024200139</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4611,7 +4675,7 @@
         <v>200818.3714200139</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4644,7 +4708,7 @@
         <v>200211.1142200139</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4677,7 +4741,7 @@
         <v>200211.1142200139</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4710,7 +4774,7 @@
         <v>200211.1142200139</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4743,7 +4807,7 @@
         <v>188791.2952200139</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4809,7 +4873,7 @@
         <v>90975.35302001392</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4842,7 +4906,7 @@
         <v>103131.1975200139</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4875,7 +4939,7 @@
         <v>110988.2663200139</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4908,7 +4972,7 @@
         <v>109460.7030200139</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4941,7 +5005,7 @@
         <v>104372.5763200139</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4974,7 +5038,7 @@
         <v>104372.5763200139</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5007,7 +5071,7 @@
         <v>115759.7492200139</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5040,7 +5104,7 @@
         <v>115758.7492200139</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5073,7 +5137,7 @@
         <v>115899.7355200139</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5106,7 +5170,7 @@
         <v>115898.7355200139</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5238,7 +5302,7 @@
         <v>90290.26202001394</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5271,7 +5335,7 @@
         <v>88842.69422001393</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5304,7 +5368,7 @@
         <v>95516.54422001394</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5997,7 +6061,7 @@
         <v>243738.3014815203</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6030,7 +6094,7 @@
         <v>247044.2764815203</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6063,7 +6127,7 @@
         <v>243334.3411815203</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6294,7 +6358,7 @@
         <v>232092.4280921639</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6327,7 +6391,7 @@
         <v>229425.4402921639</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6360,7 +6424,7 @@
         <v>229425.4402921639</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6393,7 +6457,7 @@
         <v>228470.5075921639</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6459,7 +6523,7 @@
         <v>232384.5880803992</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6492,7 +6556,7 @@
         <v>233496.3358277676</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6525,7 +6589,7 @@
         <v>214566.4892277676</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6558,7 +6622,7 @@
         <v>223537.8571277676</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6591,7 +6655,7 @@
         <v>215013.9392277676</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6624,7 +6688,7 @@
         <v>199808.2772277676</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6657,7 +6721,7 @@
         <v>167598.6833277676</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6690,7 +6754,7 @@
         <v>177364.7662257542</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6723,7 +6787,7 @@
         <v>172689.1065257542</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6756,7 +6820,7 @@
         <v>173814.9465257542</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6789,7 +6853,7 @@
         <v>112954.5585257542</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6822,7 +6886,7 @@
         <v>126493.0100257542</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6855,7 +6919,7 @@
         <v>126379.0100257542</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6888,7 +6952,7 @@
         <v>126379.0100257542</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6921,7 +6985,7 @@
         <v>114152.1650257542</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6954,7 +7018,7 @@
         <v>114153.1650257542</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6987,7 +7051,7 @@
         <v>88457.87072575418</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7020,7 +7084,7 @@
         <v>93532.42462575418</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7053,7 +7117,7 @@
         <v>115016.6565257542</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7086,7 +7150,7 @@
         <v>99390.77862575417</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7119,7 +7183,7 @@
         <v>100951.3721257542</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7152,7 +7216,7 @@
         <v>100951.3721257542</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7185,7 +7249,7 @@
         <v>100322.1341257542</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7218,7 +7282,7 @@
         <v>60083.96552575418</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7284,7 +7348,7 @@
         <v>52873.28252575418</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7317,7 +7381,7 @@
         <v>50290.52362575418</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7350,7 +7414,7 @@
         <v>50290.52362575418</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7383,7 +7447,7 @@
         <v>50290.52362575418</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7449,7 +7513,7 @@
         <v>50620.90232575418</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -14049,10 +14113,14 @@
         <v>-1413581.698399353</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>137</v>
+      </c>
+      <c r="J398" t="n">
+        <v>137</v>
+      </c>
       <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
@@ -14082,11 +14150,19 @@
         <v>-1413581.698399353</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>138</v>
+      </c>
+      <c r="J399" t="n">
+        <v>137</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14115,11 +14191,19 @@
         <v>-1413581.698399353</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>138</v>
+      </c>
+      <c r="J400" t="n">
+        <v>137</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14148,10 +14232,14 @@
         <v>-1413581.698399353</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>138</v>
+      </c>
+      <c r="J401" t="n">
+        <v>138</v>
+      </c>
       <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
@@ -14181,11 +14269,19 @@
         <v>-1432173.515799353</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>138</v>
+      </c>
+      <c r="J402" t="n">
+        <v>138</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14214,11 +14310,19 @@
         <v>-1432173.515799353</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>137</v>
+      </c>
+      <c r="J403" t="n">
+        <v>138</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14247,10 +14351,14 @@
         <v>-1432173.515799353</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>137</v>
+      </c>
+      <c r="J404" t="n">
+        <v>137</v>
+      </c>
       <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
@@ -14280,11 +14388,19 @@
         <v>-1432173.515799353</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>137</v>
+      </c>
+      <c r="J405" t="n">
+        <v>137</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14313,11 +14429,19 @@
         <v>-1432172.515799353</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>137</v>
+      </c>
+      <c r="J406" t="n">
+        <v>137</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14346,11 +14470,19 @@
         <v>-1439877.298399353</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>138</v>
+      </c>
+      <c r="J407" t="n">
+        <v>137</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14379,11 +14511,19 @@
         <v>-1439877.298399353</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>137</v>
+      </c>
+      <c r="J408" t="n">
+        <v>137</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14412,11 +14552,19 @@
         <v>-1439877.298399353</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>137</v>
+      </c>
+      <c r="J409" t="n">
+        <v>137</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14445,11 +14593,19 @@
         <v>-1439877.298399353</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>137</v>
+      </c>
+      <c r="J410" t="n">
+        <v>137</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14478,11 +14634,19 @@
         <v>-1439877.298399353</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>137</v>
+      </c>
+      <c r="J411" t="n">
+        <v>137</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14511,11 +14675,19 @@
         <v>-1439877.298399353</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>137</v>
+      </c>
+      <c r="J412" t="n">
+        <v>137</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14544,11 +14716,19 @@
         <v>-1439876.298399353</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>137</v>
+      </c>
+      <c r="J413" t="n">
+        <v>137</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14577,11 +14757,19 @@
         <v>-1439876.298399353</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>138</v>
+      </c>
+      <c r="J414" t="n">
+        <v>137</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14610,11 +14798,19 @@
         <v>-1439323.329299353</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>138</v>
+      </c>
+      <c r="J415" t="n">
+        <v>137</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14643,11 +14839,19 @@
         <v>-1439330.360199353</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>140</v>
+      </c>
+      <c r="J416" t="n">
+        <v>137</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14676,11 +14880,19 @@
         <v>-1439330.360199353</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>139</v>
+      </c>
+      <c r="J417" t="n">
+        <v>137</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14709,11 +14921,19 @@
         <v>-1453217.289599353</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>139</v>
+      </c>
+      <c r="J418" t="n">
+        <v>137</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14742,11 +14962,19 @@
         <v>-1453217.289599353</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>138</v>
+      </c>
+      <c r="J419" t="n">
+        <v>137</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14775,11 +15003,19 @@
         <v>-1453217.289599353</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>138</v>
+      </c>
+      <c r="J420" t="n">
+        <v>137</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14808,11 +15044,19 @@
         <v>-1453216.289599353</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>138</v>
+      </c>
+      <c r="J421" t="n">
+        <v>137</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14841,11 +15085,19 @@
         <v>-1453216.289599353</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>139</v>
+      </c>
+      <c r="J422" t="n">
+        <v>137</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14874,11 +15126,19 @@
         <v>-1460952.320099353</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>139</v>
+      </c>
+      <c r="J423" t="n">
+        <v>137</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14907,11 +15167,19 @@
         <v>-1460936.377699353</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>137</v>
+      </c>
+      <c r="J424" t="n">
+        <v>137</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14940,11 +15208,19 @@
         <v>-1462791.086599353</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>139</v>
+      </c>
+      <c r="J425" t="n">
+        <v>137</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14973,11 +15249,19 @@
         <v>-1462791.086599353</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>138</v>
+      </c>
+      <c r="J426" t="n">
+        <v>137</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15006,11 +15290,19 @@
         <v>-1465378.083299353</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>138</v>
+      </c>
+      <c r="J427" t="n">
+        <v>137</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15039,11 +15331,19 @@
         <v>-1465377.083299353</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>137</v>
+      </c>
+      <c r="J428" t="n">
+        <v>137</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15072,11 +15372,19 @@
         <v>-1465377.083299353</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>139</v>
+      </c>
+      <c r="J429" t="n">
+        <v>137</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15105,11 +15413,19 @@
         <v>-1477731.936399353</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>139</v>
+      </c>
+      <c r="J430" t="n">
+        <v>137</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15138,11 +15454,19 @@
         <v>-1470591.346199353</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>137</v>
+      </c>
+      <c r="J431" t="n">
+        <v>137</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15171,11 +15495,19 @@
         <v>-1473176.342799353</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>138</v>
+      </c>
+      <c r="J432" t="n">
+        <v>137</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15204,11 +15536,19 @@
         <v>-1473176.342799353</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>137</v>
+      </c>
+      <c r="J433" t="n">
+        <v>137</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15237,11 +15577,19 @@
         <v>-1473257.446299353</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>137</v>
+      </c>
+      <c r="J434" t="n">
+        <v>137</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15270,11 +15618,19 @@
         <v>-1472862.563099353</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>136</v>
+      </c>
+      <c r="J435" t="n">
+        <v>137</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15303,11 +15659,19 @@
         <v>-1472863.563099353</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>137</v>
+      </c>
+      <c r="J436" t="n">
+        <v>137</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15336,11 +15700,19 @@
         <v>-1472863.563099353</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>136</v>
+      </c>
+      <c r="J437" t="n">
+        <v>137</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15369,11 +15741,19 @@
         <v>-1472863.563099353</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>136</v>
+      </c>
+      <c r="J438" t="n">
+        <v>137</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15402,11 +15782,19 @@
         <v>-1470781.544999353</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>136</v>
+      </c>
+      <c r="J439" t="n">
+        <v>137</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15435,11 +15823,19 @@
         <v>-1472627.411699353</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>138</v>
+      </c>
+      <c r="J440" t="n">
+        <v>137</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15468,11 +15864,19 @@
         <v>-1472627.411699353</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>137</v>
+      </c>
+      <c r="J441" t="n">
+        <v>137</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15501,11 +15905,19 @@
         <v>-1461672.670399353</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>137</v>
+      </c>
+      <c r="J442" t="n">
+        <v>137</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15534,11 +15946,19 @@
         <v>-1461672.670399353</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>138</v>
+      </c>
+      <c r="J443" t="n">
+        <v>137</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15567,11 +15987,19 @@
         <v>-1476574.129199353</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>138</v>
+      </c>
+      <c r="J444" t="n">
+        <v>137</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15600,11 +16028,19 @@
         <v>-1476574.129199353</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>137</v>
+      </c>
+      <c r="J445" t="n">
+        <v>137</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15633,11 +16069,19 @@
         <v>-1476574.129199353</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>137</v>
+      </c>
+      <c r="J446" t="n">
+        <v>137</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15666,11 +16110,19 @@
         <v>-1473492.230999353</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>137</v>
+      </c>
+      <c r="J447" t="n">
+        <v>137</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15699,11 +16151,19 @@
         <v>-1473492.230999353</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>138</v>
+      </c>
+      <c r="J448" t="n">
+        <v>137</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15732,11 +16192,19 @@
         <v>-1473492.230999353</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>138</v>
+      </c>
+      <c r="J449" t="n">
+        <v>137</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15765,11 +16233,19 @@
         <v>-1475324.869699353</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>138</v>
+      </c>
+      <c r="J450" t="n">
+        <v>137</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15798,11 +16274,19 @@
         <v>-1483243.798099353</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>137</v>
+      </c>
+      <c r="J451" t="n">
+        <v>137</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15831,11 +16315,19 @@
         <v>-1483243.798099353</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>136</v>
+      </c>
+      <c r="J452" t="n">
+        <v>137</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15864,11 +16356,19 @@
         <v>-1480627.781099353</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>136</v>
+      </c>
+      <c r="J453" t="n">
+        <v>137</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15897,11 +16397,19 @@
         <v>-1480627.781099353</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>137</v>
+      </c>
+      <c r="J454" t="n">
+        <v>137</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15930,11 +16438,19 @@
         <v>-1480627.781099353</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>137</v>
+      </c>
+      <c r="J455" t="n">
+        <v>137</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15963,11 +16479,19 @@
         <v>-1480627.781099353</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>137</v>
+      </c>
+      <c r="J456" t="n">
+        <v>137</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15996,11 +16520,19 @@
         <v>-1480627.781099353</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>137</v>
+      </c>
+      <c r="J457" t="n">
+        <v>137</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16029,11 +16561,19 @@
         <v>-1480627.781099353</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>137</v>
+      </c>
+      <c r="J458" t="n">
+        <v>137</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16062,11 +16602,19 @@
         <v>-1480627.781099353</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>137</v>
+      </c>
+      <c r="J459" t="n">
+        <v>137</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16095,11 +16643,19 @@
         <v>-1480627.781099353</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>137</v>
+      </c>
+      <c r="J460" t="n">
+        <v>137</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16128,11 +16684,19 @@
         <v>-1480627.781099353</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>137</v>
+      </c>
+      <c r="J461" t="n">
+        <v>137</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16161,11 +16725,19 @@
         <v>-1480627.781099353</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>137</v>
+      </c>
+      <c r="J462" t="n">
+        <v>137</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16194,11 +16766,19 @@
         <v>-1480628.781099353</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>137</v>
+      </c>
+      <c r="J463" t="n">
+        <v>137</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16227,11 +16807,19 @@
         <v>-1478905.781099353</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>136</v>
+      </c>
+      <c r="J464" t="n">
+        <v>137</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16260,11 +16848,19 @@
         <v>-1478906.781099353</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>138</v>
+      </c>
+      <c r="J465" t="n">
+        <v>137</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16293,11 +16889,19 @@
         <v>-1478906.781099353</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>136</v>
+      </c>
+      <c r="J466" t="n">
+        <v>137</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16326,11 +16930,19 @@
         <v>-1478860.781099353</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>136</v>
+      </c>
+      <c r="J467" t="n">
+        <v>137</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16359,11 +16971,19 @@
         <v>-1479384.781099353</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>138</v>
+      </c>
+      <c r="J468" t="n">
+        <v>137</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16392,11 +17012,19 @@
         <v>-1271491.617799353</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>136</v>
+      </c>
+      <c r="J469" t="n">
+        <v>137</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16425,11 +17053,19 @@
         <v>-1271491.617799353</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>143</v>
+      </c>
+      <c r="J470" t="n">
+        <v>137</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16461,8 +17097,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>137</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16494,8 +17136,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>137</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16527,8 +17175,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>137</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16560,8 +17214,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>137</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16593,8 +17253,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>137</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16626,8 +17292,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>137</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16659,8 +17331,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>137</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16692,8 +17370,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>137</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16725,8 +17409,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>137</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16758,8 +17448,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>137</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16791,8 +17487,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>137</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16824,8 +17526,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>137</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16857,8 +17565,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>137</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16890,8 +17604,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>137</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16920,11 +17640,19 @@
         <v>-1295885.405599353</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>143</v>
+      </c>
+      <c r="J485" t="n">
+        <v>137</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16953,11 +17681,19 @@
         <v>-1295885.405599353</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>143</v>
+      </c>
+      <c r="J486" t="n">
+        <v>137</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16986,11 +17722,19 @@
         <v>-1295872.405599353</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>143</v>
+      </c>
+      <c r="J487" t="n">
+        <v>137</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17019,11 +17763,19 @@
         <v>-1299071.169399353</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>144</v>
+      </c>
+      <c r="J488" t="n">
+        <v>137</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17052,11 +17804,19 @@
         <v>-1293908.617099353</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>143</v>
+      </c>
+      <c r="J489" t="n">
+        <v>137</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17085,11 +17845,19 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>144</v>
+      </c>
+      <c r="J490" t="n">
+        <v>137</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17118,11 +17886,19 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>143</v>
+      </c>
+      <c r="J491" t="n">
+        <v>137</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17151,11 +17927,19 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>143</v>
+      </c>
+      <c r="J492" t="n">
+        <v>137</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17184,11 +17968,19 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>143</v>
+      </c>
+      <c r="J493" t="n">
+        <v>137</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17217,11 +18009,19 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>143</v>
+      </c>
+      <c r="J494" t="n">
+        <v>137</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17250,11 +18050,19 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>143</v>
+      </c>
+      <c r="J495" t="n">
+        <v>137</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17283,11 +18091,19 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>143</v>
+      </c>
+      <c r="J496" t="n">
+        <v>137</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17316,11 +18132,19 @@
         <v>-1305685.905499353</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>143</v>
+      </c>
+      <c r="J497" t="n">
+        <v>137</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17349,11 +18173,19 @@
         <v>-1305685.905499353</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>142</v>
+      </c>
+      <c r="J498" t="n">
+        <v>137</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17382,11 +18214,19 @@
         <v>-1304896.912499353</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>142</v>
+      </c>
+      <c r="J499" t="n">
+        <v>137</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17415,11 +18255,19 @@
         <v>-1318437.248299353</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>143</v>
+      </c>
+      <c r="J500" t="n">
+        <v>137</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17448,11 +18296,19 @@
         <v>-1338640.952699353</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>142</v>
+      </c>
+      <c r="J501" t="n">
+        <v>137</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17481,11 +18337,19 @@
         <v>-1367355.496099353</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>141</v>
+      </c>
+      <c r="J502" t="n">
+        <v>137</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17514,11 +18378,19 @@
         <v>-1359367.365299353</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>140</v>
+      </c>
+      <c r="J503" t="n">
+        <v>137</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17547,11 +18419,19 @@
         <v>-1363883.042399353</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>142</v>
+      </c>
+      <c r="J504" t="n">
+        <v>137</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17580,11 +18460,19 @@
         <v>-1363715.880899353</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>140</v>
+      </c>
+      <c r="J505" t="n">
+        <v>137</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17613,11 +18501,19 @@
         <v>-1363717.880899353</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>143</v>
+      </c>
+      <c r="J506" t="n">
+        <v>137</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17646,11 +18542,19 @@
         <v>-1363717.880899353</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>142</v>
+      </c>
+      <c r="J507" t="n">
+        <v>137</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17679,11 +18583,19 @@
         <v>-1364127.380899353</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>142</v>
+      </c>
+      <c r="J508" t="n">
+        <v>137</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17712,11 +18624,19 @@
         <v>-1355681.185699353</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>141</v>
+      </c>
+      <c r="J509" t="n">
+        <v>137</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17745,11 +18665,19 @@
         <v>-1355681.185699353</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>142</v>
+      </c>
+      <c r="J510" t="n">
+        <v>137</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17778,11 +18706,19 @@
         <v>-1355681.185699353</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>142</v>
+      </c>
+      <c r="J511" t="n">
+        <v>137</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17811,11 +18747,19 @@
         <v>-1355869.185699353</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>142</v>
+      </c>
+      <c r="J512" t="n">
+        <v>137</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17844,11 +18788,19 @@
         <v>-1355869.185699353</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>140</v>
+      </c>
+      <c r="J513" t="n">
+        <v>137</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17877,11 +18829,19 @@
         <v>-1328370.893699353</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>140</v>
+      </c>
+      <c r="J514" t="n">
+        <v>137</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17910,11 +18870,19 @@
         <v>-1269537.781804796</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>145</v>
+      </c>
+      <c r="J515" t="n">
+        <v>137</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17943,11 +18911,19 @@
         <v>-1269537.781804796</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>147</v>
+      </c>
+      <c r="J516" t="n">
+        <v>137</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17976,11 +18952,19 @@
         <v>-1256142.282904796</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>147</v>
+      </c>
+      <c r="J517" t="n">
+        <v>137</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18009,11 +18993,19 @@
         <v>-1162762.620302782</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>149</v>
+      </c>
+      <c r="J518" t="n">
+        <v>137</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18042,11 +19034,19 @@
         <v>-1162762.620302782</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>151</v>
+      </c>
+      <c r="J519" t="n">
+        <v>137</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18075,11 +19075,19 @@
         <v>-1162762.620302782</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>151</v>
+      </c>
+      <c r="J520" t="n">
+        <v>137</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18108,11 +19116,19 @@
         <v>-1162762.620302782</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>151</v>
+      </c>
+      <c r="J521" t="n">
+        <v>137</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18141,11 +19157,19 @@
         <v>-1162762.620302782</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>151</v>
+      </c>
+      <c r="J522" t="n">
+        <v>137</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18174,11 +19198,19 @@
         <v>-1176462.028302782</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>151</v>
+      </c>
+      <c r="J523" t="n">
+        <v>137</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18207,11 +19239,19 @@
         <v>-1172710.207302782</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>148</v>
+      </c>
+      <c r="J524" t="n">
+        <v>137</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18240,11 +19280,19 @@
         <v>-1172710.207302782</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>149</v>
+      </c>
+      <c r="J525" t="n">
+        <v>137</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18273,11 +19321,19 @@
         <v>-1171706.207302782</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>149</v>
+      </c>
+      <c r="J526" t="n">
+        <v>137</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18309,8 +19365,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>137</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18342,8 +19404,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>137</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18375,8 +19443,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>137</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18408,8 +19482,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>137</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18441,8 +19521,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>137</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18471,11 +19557,19 @@
         <v>-1133880.910502782</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>150</v>
+      </c>
+      <c r="J532" t="n">
+        <v>137</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18504,11 +19598,19 @@
         <v>-1133880.910502782</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>148</v>
+      </c>
+      <c r="J533" t="n">
+        <v>137</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18537,11 +19639,19 @@
         <v>-1133880.910502782</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>148</v>
+      </c>
+      <c r="J534" t="n">
+        <v>137</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18570,11 +19680,19 @@
         <v>-1133880.910502782</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>148</v>
+      </c>
+      <c r="J535" t="n">
+        <v>137</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18603,11 +19721,19 @@
         <v>-1137500.529102782</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>148</v>
+      </c>
+      <c r="J536" t="n">
+        <v>137</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18636,11 +19762,19 @@
         <v>-1147778.318002782</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>147</v>
+      </c>
+      <c r="J537" t="n">
+        <v>137</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18669,11 +19803,19 @@
         <v>-1147778.318002782</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>146</v>
+      </c>
+      <c r="J538" t="n">
+        <v>137</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18702,11 +19844,19 @@
         <v>-1202801.996002782</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>146</v>
+      </c>
+      <c r="J539" t="n">
+        <v>137</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18735,11 +19885,19 @@
         <v>-1276583.026802782</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>145</v>
+      </c>
+      <c r="J540" t="n">
+        <v>137</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18768,11 +19926,19 @@
         <v>-1276583.026802782</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>144</v>
+      </c>
+      <c r="J541" t="n">
+        <v>137</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18801,11 +19967,19 @@
         <v>-1276581.865302783</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>144</v>
+      </c>
+      <c r="J542" t="n">
+        <v>137</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18834,11 +20008,19 @@
         <v>-1289256.029202783</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>145</v>
+      </c>
+      <c r="J543" t="n">
+        <v>137</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18867,11 +20049,19 @@
         <v>-1289252.706202782</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>143</v>
+      </c>
+      <c r="J544" t="n">
+        <v>137</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18900,11 +20090,19 @@
         <v>-1328135.083502783</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>146</v>
+      </c>
+      <c r="J545" t="n">
+        <v>137</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18933,11 +20131,19 @@
         <v>-1328135.083502783</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>142</v>
+      </c>
+      <c r="J546" t="n">
+        <v>137</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18966,11 +20172,19 @@
         <v>-1328135.083502783</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>142</v>
+      </c>
+      <c r="J547" t="n">
+        <v>137</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18999,11 +20213,19 @@
         <v>-1323252.679802783</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>142</v>
+      </c>
+      <c r="J548" t="n">
+        <v>137</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19032,11 +20254,19 @@
         <v>-1323252.679802783</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>145</v>
+      </c>
+      <c r="J549" t="n">
+        <v>137</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19065,11 +20295,19 @@
         <v>-1323416.841302783</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>145</v>
+      </c>
+      <c r="J550" t="n">
+        <v>137</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19098,11 +20336,19 @@
         <v>-1302584.947402783</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>144</v>
+      </c>
+      <c r="J551" t="n">
+        <v>137</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19131,11 +20377,19 @@
         <v>-1302588.108902782</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>145</v>
+      </c>
+      <c r="J552" t="n">
+        <v>137</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19164,11 +20418,19 @@
         <v>-1302588.108902782</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>143</v>
+      </c>
+      <c r="J553" t="n">
+        <v>137</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19197,11 +20459,19 @@
         <v>-1302588.108902782</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>143</v>
+      </c>
+      <c r="J554" t="n">
+        <v>137</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19230,11 +20500,19 @@
         <v>-1302588.108902782</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>143</v>
+      </c>
+      <c r="J555" t="n">
+        <v>137</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19263,11 +20541,19 @@
         <v>-1302588.108902782</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>143</v>
+      </c>
+      <c r="J556" t="n">
+        <v>137</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19296,11 +20582,19 @@
         <v>-1302588.108902782</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>143</v>
+      </c>
+      <c r="J557" t="n">
+        <v>137</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19329,11 +20623,19 @@
         <v>-1302588.108902782</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>143</v>
+      </c>
+      <c r="J558" t="n">
+        <v>137</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19362,11 +20664,19 @@
         <v>-1283199.336202782</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>143</v>
+      </c>
+      <c r="J559" t="n">
+        <v>137</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19395,11 +20705,19 @@
         <v>-1283199.336202782</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>144</v>
+      </c>
+      <c r="J560" t="n">
+        <v>137</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19428,11 +20746,19 @@
         <v>-1283198.174702782</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>144</v>
+      </c>
+      <c r="J561" t="n">
+        <v>137</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19461,11 +20787,19 @@
         <v>-1283198.174702782</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>145</v>
+      </c>
+      <c r="J562" t="n">
+        <v>137</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19494,11 +20828,19 @@
         <v>-1285609.307702782</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>145</v>
+      </c>
+      <c r="J563" t="n">
+        <v>137</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19527,11 +20869,19 @@
         <v>-1275603.984702782</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>143</v>
+      </c>
+      <c r="J564" t="n">
+        <v>137</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19560,11 +20910,19 @@
         <v>-1276229.910602782</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>144</v>
+      </c>
+      <c r="J565" t="n">
+        <v>137</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19593,11 +20951,19 @@
         <v>-1319599.400802782</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>143</v>
+      </c>
+      <c r="J566" t="n">
+        <v>137</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19626,11 +20992,19 @@
         <v>-1319518.239302782</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>142</v>
+      </c>
+      <c r="J567" t="n">
+        <v>137</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19659,11 +21033,19 @@
         <v>-1319518.239302782</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>143</v>
+      </c>
+      <c r="J568" t="n">
+        <v>137</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19692,11 +21074,19 @@
         <v>-1319518.239302782</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>143</v>
+      </c>
+      <c r="J569" t="n">
+        <v>137</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19725,11 +21115,19 @@
         <v>-1312911.102802782</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>143</v>
+      </c>
+      <c r="J570" t="n">
+        <v>137</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19758,11 +21156,19 @@
         <v>-1312911.102802782</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>144</v>
+      </c>
+      <c r="J571" t="n">
+        <v>137</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19791,11 +21197,19 @@
         <v>-1312912.102802782</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>144</v>
+      </c>
+      <c r="J572" t="n">
+        <v>137</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19824,11 +21238,19 @@
         <v>-1296369.073502782</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>142</v>
+      </c>
+      <c r="J573" t="n">
+        <v>137</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19857,11 +21279,19 @@
         <v>-1302073.054802782</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>143</v>
+      </c>
+      <c r="J574" t="n">
+        <v>137</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19890,11 +21320,19 @@
         <v>-1302073.054802782</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>142</v>
+      </c>
+      <c r="J575" t="n">
+        <v>137</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19923,11 +21361,19 @@
         <v>-1302073.054802782</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>142</v>
+      </c>
+      <c r="J576" t="n">
+        <v>137</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19956,11 +21402,19 @@
         <v>-1302073.054802782</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>142</v>
+      </c>
+      <c r="J577" t="n">
+        <v>137</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19989,11 +21443,19 @@
         <v>-1351210.833302782</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>142</v>
+      </c>
+      <c r="J578" t="n">
+        <v>137</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20022,11 +21484,19 @@
         <v>-1439869.121302782</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>141</v>
+      </c>
+      <c r="J579" t="n">
+        <v>137</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20055,11 +21525,19 @@
         <v>-1439869.121302782</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>139</v>
+      </c>
+      <c r="J580" t="n">
+        <v>137</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20088,11 +21566,19 @@
         <v>-1433347.534202782</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>139</v>
+      </c>
+      <c r="J581" t="n">
+        <v>137</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20121,11 +21607,19 @@
         <v>-1387447.742102782</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>140</v>
+      </c>
+      <c r="J582" t="n">
+        <v>137</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20154,11 +21648,19 @@
         <v>-1414715.313102782</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>141</v>
+      </c>
+      <c r="J583" t="n">
+        <v>137</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20187,11 +21689,19 @@
         <v>-1414715.313102782</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>139</v>
+      </c>
+      <c r="J584" t="n">
+        <v>137</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20220,11 +21730,19 @@
         <v>-1413138.734702782</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>139</v>
+      </c>
+      <c r="J585" t="n">
+        <v>137</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20253,11 +21771,19 @@
         <v>-1413139.734702782</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>140</v>
+      </c>
+      <c r="J586" t="n">
+        <v>137</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20286,11 +21812,19 @@
         <v>-1413139.734702782</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>139</v>
+      </c>
+      <c r="J587" t="n">
+        <v>137</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20319,11 +21853,19 @@
         <v>-1413139.734702782</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>139</v>
+      </c>
+      <c r="J588" t="n">
+        <v>137</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20352,11 +21894,19 @@
         <v>-1400639.244602782</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>139</v>
+      </c>
+      <c r="J589" t="n">
+        <v>137</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20385,11 +21935,19 @@
         <v>-1405157.083002782</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>140</v>
+      </c>
+      <c r="J590" t="n">
+        <v>137</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20418,11 +21976,19 @@
         <v>-1405157.083002782</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>139</v>
+      </c>
+      <c r="J591" t="n">
+        <v>137</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20451,11 +22017,19 @@
         <v>-1405157.083002782</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>139</v>
+      </c>
+      <c r="J592" t="n">
+        <v>137</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20484,11 +22058,19 @@
         <v>-1402503.926202782</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>139</v>
+      </c>
+      <c r="J593" t="n">
+        <v>137</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20517,11 +22099,19 @@
         <v>-1389165.362902782</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>140</v>
+      </c>
+      <c r="J594" t="n">
+        <v>137</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20550,11 +22140,19 @@
         <v>-1389165.362902782</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>141</v>
+      </c>
+      <c r="J595" t="n">
+        <v>137</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20583,11 +22181,19 @@
         <v>-1389165.362902782</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>141</v>
+      </c>
+      <c r="J596" t="n">
+        <v>137</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20616,11 +22222,19 @@
         <v>-1388530.876202782</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>141</v>
+      </c>
+      <c r="J597" t="n">
+        <v>137</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20649,11 +22263,19 @@
         <v>-1388530.876202782</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>142</v>
+      </c>
+      <c r="J598" t="n">
+        <v>137</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20682,11 +22304,19 @@
         <v>-1386502.673002782</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>142</v>
+      </c>
+      <c r="J599" t="n">
+        <v>137</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20715,11 +22345,19 @@
         <v>-1386502.673002782</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>144</v>
+      </c>
+      <c r="J600" t="n">
+        <v>137</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20748,11 +22386,19 @@
         <v>-1389337.497002782</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>144</v>
+      </c>
+      <c r="J601" t="n">
+        <v>137</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20781,11 +22427,19 @@
         <v>-1389337.497002782</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>142</v>
+      </c>
+      <c r="J602" t="n">
+        <v>137</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20814,11 +22468,19 @@
         <v>-1389337.497002782</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>142</v>
+      </c>
+      <c r="J603" t="n">
+        <v>137</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20847,11 +22509,19 @@
         <v>-1389337.497002782</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>142</v>
+      </c>
+      <c r="J604" t="n">
+        <v>137</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20880,11 +22550,19 @@
         <v>-1389344.497002782</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>142</v>
+      </c>
+      <c r="J605" t="n">
+        <v>137</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20913,11 +22591,19 @@
         <v>-1389343.497002782</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>141</v>
+      </c>
+      <c r="J606" t="n">
+        <v>137</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20946,11 +22632,19 @@
         <v>-1408629.987902782</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>142</v>
+      </c>
+      <c r="J607" t="n">
+        <v>137</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20979,11 +22673,19 @@
         <v>-1408629.987902782</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>141</v>
+      </c>
+      <c r="J608" t="n">
+        <v>137</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21012,11 +22714,19 @@
         <v>-1408528.987902782</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>141</v>
+      </c>
+      <c r="J609" t="n">
+        <v>137</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21045,11 +22755,19 @@
         <v>-1389231.389802782</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>142</v>
+      </c>
+      <c r="J610" t="n">
+        <v>137</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21078,11 +22796,19 @@
         <v>-1376227.479502782</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>144</v>
+      </c>
+      <c r="J611" t="n">
+        <v>137</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21111,11 +22837,19 @@
         <v>-1379269.218102782</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>145</v>
+      </c>
+      <c r="J612" t="n">
+        <v>137</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21144,11 +22878,19 @@
         <v>-1411605.061502782</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>143</v>
+      </c>
+      <c r="J613" t="n">
+        <v>137</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21177,11 +22919,19 @@
         <v>-1411605.061502782</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>141</v>
+      </c>
+      <c r="J614" t="n">
+        <v>137</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21210,11 +22960,19 @@
         <v>-1411605.061502782</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>141</v>
+      </c>
+      <c r="J615" t="n">
+        <v>137</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21243,11 +23001,19 @@
         <v>-1411604.061502782</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>141</v>
+      </c>
+      <c r="J616" t="n">
+        <v>137</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21276,17 +23042,25 @@
         <v>-1411604.061502782</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>143</v>
+      </c>
+      <c r="J617" t="n">
+        <v>137</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
       <c r="M617" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest FX.xlsx
+++ b/BackTest/2019-11-02 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>45713.56972450724</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>43478.56972450724</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>133</v>
-      </c>
-      <c r="J3" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>43478.56972450724</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>132</v>
-      </c>
-      <c r="J4" t="n">
-        <v>133</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>43524.62982450724</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>132</v>
-      </c>
-      <c r="J5" t="n">
-        <v>133</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>43524.62982450724</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>133</v>
-      </c>
-      <c r="J6" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -643,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>133</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -682,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>133</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -784,14 +748,10 @@
         <v>45801.79392450724</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>132</v>
-      </c>
-      <c r="J11" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -824,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>132</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -860,19 +814,11 @@
         <v>45801.79392450724</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>132</v>
-      </c>
-      <c r="J13" t="n">
-        <v>132</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -901,14 +847,10 @@
         <v>45204.81002450724</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>132</v>
-      </c>
-      <c r="J14" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
@@ -938,19 +880,11 @@
         <v>45213.81002450724</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>131</v>
-      </c>
-      <c r="J15" t="n">
-        <v>132</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -979,19 +913,11 @@
         <v>45213.81002450724</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>133</v>
-      </c>
-      <c r="J16" t="n">
-        <v>132</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1020,14 +946,10 @@
         <v>45213.81002450724</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>133</v>
-      </c>
-      <c r="J17" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -1057,19 +979,11 @@
         <v>45213.81002450724</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>133</v>
-      </c>
-      <c r="J18" t="n">
-        <v>133</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1098,19 +1012,11 @@
         <v>45213.81002450724</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>133</v>
-      </c>
-      <c r="J19" t="n">
-        <v>133</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1139,14 +1045,10 @@
         <v>45213.81002450724</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>133</v>
-      </c>
-      <c r="J20" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
@@ -1176,19 +1078,11 @@
         <v>45214.81002450724</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>133</v>
-      </c>
-      <c r="J21" t="n">
-        <v>133</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1217,19 +1111,11 @@
         <v>45214.81002450724</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>134</v>
-      </c>
-      <c r="J22" t="n">
-        <v>133</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1258,14 +1144,10 @@
         <v>45214.81002450724</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>134</v>
-      </c>
-      <c r="J23" t="n">
-        <v>134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1295,19 +1177,11 @@
         <v>45214.81002450724</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>134</v>
-      </c>
-      <c r="J24" t="n">
-        <v>134</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1339,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>134</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1378,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>134</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1417,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>134</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1456,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>134</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1495,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>134</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1534,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>134</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1573,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>134</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1612,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>134</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1651,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>134</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1690,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>134</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1729,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>134</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1768,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>134</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1807,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>134</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1846,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>134</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1885,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>134</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1924,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>134</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1963,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>134</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2002,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>134</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2041,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>134</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2080,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>134</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2119,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>134</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2158,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>134</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2197,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>134</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2236,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>134</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2275,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>134</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2314,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>134</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2353,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>134</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2392,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>134</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2431,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>134</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2470,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>134</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2509,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>134</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2548,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>134</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2587,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>134</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2626,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>134</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2665,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>134</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2704,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>134</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2743,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>134</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2782,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>134</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2821,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>134</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2860,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>134</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2899,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>134</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2938,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>134</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2977,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>134</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3016,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>134</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3052,19 +2662,11 @@
         <v>-16416.044865045</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>128</v>
-      </c>
-      <c r="J69" t="n">
-        <v>134</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3093,19 +2695,11 @@
         <v>-16416.044865045</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>129</v>
-      </c>
-      <c r="J70" t="n">
-        <v>134</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3134,19 +2728,11 @@
         <v>-16416.044865045</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>129</v>
-      </c>
-      <c r="J71" t="n">
-        <v>134</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3175,19 +2761,11 @@
         <v>-16416.044865045</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>129</v>
-      </c>
-      <c r="J72" t="n">
-        <v>134</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3216,19 +2794,11 @@
         <v>-10101.917665045</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>129</v>
-      </c>
-      <c r="J73" t="n">
-        <v>134</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3257,19 +2827,11 @@
         <v>-5884.312301887105</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>132</v>
-      </c>
-      <c r="J74" t="n">
-        <v>134</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3298,19 +2860,11 @@
         <v>94631.13789811291</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>133</v>
-      </c>
-      <c r="J75" t="n">
-        <v>134</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3339,19 +2893,11 @@
         <v>126130.8134981129</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>136</v>
-      </c>
-      <c r="J76" t="n">
-        <v>134</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3383,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>134</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3422,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>134</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3461,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>134</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3500,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>134</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3536,17 +3058,11 @@
         <v>729635.8652899624</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>134</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3575,17 +3091,11 @@
         <v>478687.7562899624</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>134</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3614,17 +3124,11 @@
         <v>523602.7615899624</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>134</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3653,17 +3157,11 @@
         <v>409201.9259308247</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>134</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3692,17 +3190,11 @@
         <v>366019.3573308247</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>134</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3731,17 +3223,11 @@
         <v>340620.1423308247</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>134</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3770,17 +3256,11 @@
         <v>334788.3660308247</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>134</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3809,17 +3289,11 @@
         <v>314019.8834308247</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>134</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3848,17 +3322,11 @@
         <v>353723.494066539</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>134</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3887,17 +3355,11 @@
         <v>342442.788266539</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>134</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3926,17 +3388,11 @@
         <v>342442.788266539</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>134</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3965,17 +3421,11 @@
         <v>346682.412566539</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>134</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4007,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>134</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4046,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>134</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4085,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>134</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4124,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>134</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4163,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>134</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4202,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>134</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4238,23 +3652,15 @@
         <v>345891.8341308247</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>134</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>1.13679104477612</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.022900763358779</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4279,7 +3685,7 @@
         <v>344127.5269308247</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4312,7 +3718,7 @@
         <v>344127.5269308247</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4345,7 +3751,7 @@
         <v>274237.1793308248</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4378,7 +3784,7 @@
         <v>195751.2317308247</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4411,7 +3817,7 @@
         <v>197095.7026308247</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4444,7 +3850,7 @@
         <v>197095.7026308247</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4477,7 +3883,7 @@
         <v>201955.7229308247</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4708,7 +4114,7 @@
         <v>200211.1142200139</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4741,7 +4147,7 @@
         <v>200211.1142200139</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4807,7 +4213,7 @@
         <v>188791.2952200139</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4873,7 +4279,7 @@
         <v>90975.35302001392</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4906,7 +4312,7 @@
         <v>103131.1975200139</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4939,7 +4345,7 @@
         <v>110988.2663200139</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4972,7 +4378,7 @@
         <v>109460.7030200139</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5038,7 +4444,7 @@
         <v>104372.5763200139</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5104,7 +4510,7 @@
         <v>115758.7492200139</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5137,7 +4543,7 @@
         <v>115899.7355200139</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5170,7 +4576,7 @@
         <v>115898.7355200139</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5302,7 +4708,7 @@
         <v>90290.26202001394</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5335,7 +4741,7 @@
         <v>88842.69422001393</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5368,7 +4774,7 @@
         <v>95516.54422001394</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -6358,7 +5764,7 @@
         <v>232092.4280921639</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6391,7 +5797,7 @@
         <v>229425.4402921639</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6424,7 +5830,7 @@
         <v>229425.4402921639</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6457,7 +5863,7 @@
         <v>228470.5075921639</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6523,7 +5929,7 @@
         <v>232384.5880803992</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6556,7 +5962,7 @@
         <v>233496.3358277676</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6589,7 +5995,7 @@
         <v>214566.4892277676</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6622,7 +6028,7 @@
         <v>223537.8571277676</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6655,7 +6061,7 @@
         <v>215013.9392277676</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6688,7 +6094,7 @@
         <v>199808.2772277676</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6721,7 +6127,7 @@
         <v>167598.6833277676</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6754,7 +6160,7 @@
         <v>177364.7662257542</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6787,7 +6193,7 @@
         <v>172689.1065257542</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6820,7 +6226,7 @@
         <v>173814.9465257542</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6853,7 +6259,7 @@
         <v>112954.5585257542</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6886,7 +6292,7 @@
         <v>126493.0100257542</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6919,7 +6325,7 @@
         <v>126379.0100257542</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6952,7 +6358,7 @@
         <v>126379.0100257542</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6985,7 +6391,7 @@
         <v>114152.1650257542</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7018,7 +6424,7 @@
         <v>114153.1650257542</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7051,7 +6457,7 @@
         <v>88457.87072575418</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7084,7 +6490,7 @@
         <v>93532.42462575418</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7117,7 +6523,7 @@
         <v>115016.6565257542</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7150,7 +6556,7 @@
         <v>99390.77862575417</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7183,7 +6589,7 @@
         <v>100951.3721257542</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7216,7 +6622,7 @@
         <v>100951.3721257542</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7249,7 +6655,7 @@
         <v>100322.1341257542</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7282,7 +6688,7 @@
         <v>60083.96552575418</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7348,7 +6754,7 @@
         <v>52873.28252575418</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7381,7 +6787,7 @@
         <v>50290.52362575418</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7414,7 +6820,7 @@
         <v>50290.52362575418</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7447,7 +6853,7 @@
         <v>50290.52362575418</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7513,7 +6919,7 @@
         <v>50620.90232575418</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -14113,14 +13519,10 @@
         <v>-1413581.698399353</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>137</v>
-      </c>
-      <c r="J398" t="n">
-        <v>137</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
@@ -14150,19 +13552,11 @@
         <v>-1413581.698399353</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>138</v>
-      </c>
-      <c r="J399" t="n">
-        <v>137</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14191,19 +13585,11 @@
         <v>-1413581.698399353</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>138</v>
-      </c>
-      <c r="J400" t="n">
-        <v>137</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14232,14 +13618,10 @@
         <v>-1413581.698399353</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>138</v>
-      </c>
-      <c r="J401" t="n">
-        <v>138</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
@@ -14269,19 +13651,11 @@
         <v>-1432173.515799353</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>138</v>
-      </c>
-      <c r="J402" t="n">
-        <v>138</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14310,19 +13684,11 @@
         <v>-1432173.515799353</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>137</v>
-      </c>
-      <c r="J403" t="n">
-        <v>138</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14351,14 +13717,10 @@
         <v>-1432173.515799353</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>137</v>
-      </c>
-      <c r="J404" t="n">
-        <v>137</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
@@ -14388,19 +13750,11 @@
         <v>-1432173.515799353</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>137</v>
-      </c>
-      <c r="J405" t="n">
-        <v>137</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14429,19 +13783,11 @@
         <v>-1432172.515799353</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>137</v>
-      </c>
-      <c r="J406" t="n">
-        <v>137</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14470,19 +13816,11 @@
         <v>-1439877.298399353</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>138</v>
-      </c>
-      <c r="J407" t="n">
-        <v>137</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14511,19 +13849,11 @@
         <v>-1439877.298399353</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>137</v>
-      </c>
-      <c r="J408" t="n">
-        <v>137</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14552,19 +13882,11 @@
         <v>-1439877.298399353</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>137</v>
-      </c>
-      <c r="J409" t="n">
-        <v>137</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14601,11 +13923,7 @@
       <c r="J410" t="n">
         <v>137</v>
       </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14644,7 +13962,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L411" t="n">
@@ -14798,11 +14116,9 @@
         <v>-1439323.329299353</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>138</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
         <v>137</v>
       </c>
@@ -14839,11 +14155,9 @@
         <v>-1439330.360199353</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
         <v>137</v>
       </c>
@@ -14880,11 +14194,9 @@
         <v>-1439330.360199353</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
         <v>137</v>
       </c>
@@ -14921,11 +14233,9 @@
         <v>-1453217.289599353</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
         <v>137</v>
       </c>
@@ -14962,11 +14272,9 @@
         <v>-1453217.289599353</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>138</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
         <v>137</v>
       </c>
@@ -15003,11 +14311,9 @@
         <v>-1453217.289599353</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>138</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
         <v>137</v>
       </c>
@@ -15085,11 +14391,9 @@
         <v>-1453216.289599353</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
         <v>137</v>
       </c>
@@ -15126,11 +14430,9 @@
         <v>-1460952.320099353</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
         <v>137</v>
       </c>
@@ -15413,11 +14715,9 @@
         <v>-1477731.936399353</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
         <v>137</v>
       </c>
@@ -16192,11 +15492,9 @@
         <v>-1473492.230999353</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>138</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
         <v>137</v>
       </c>
@@ -16274,11 +15572,9 @@
         <v>-1483243.798099353</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>137</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
         <v>137</v>
       </c>
@@ -16315,11 +15611,9 @@
         <v>-1483243.798099353</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>136</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
         <v>137</v>
       </c>
@@ -16356,11 +15650,9 @@
         <v>-1480627.781099353</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
-        <v>136</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
         <v>137</v>
       </c>
@@ -17053,11 +16345,9 @@
         <v>-1271491.617799353</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
         <v>137</v>
       </c>
@@ -17640,11 +16930,9 @@
         <v>-1295885.405599353</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
         <v>137</v>
       </c>
@@ -17681,11 +16969,9 @@
         <v>-1295885.405599353</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
         <v>137</v>
       </c>
@@ -17722,11 +17008,9 @@
         <v>-1295872.405599353</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
-      </c>
-      <c r="I487" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
         <v>137</v>
       </c>
@@ -17763,11 +17047,9 @@
         <v>-1299071.169399353</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
         <v>137</v>
       </c>
@@ -17804,11 +17086,9 @@
         <v>-1293908.617099353</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
-      </c>
-      <c r="I489" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
         <v>137</v>
       </c>
@@ -17845,11 +17125,9 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
-      </c>
-      <c r="I490" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
         <v>137</v>
       </c>
@@ -17886,11 +17164,9 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
-      </c>
-      <c r="I491" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
         <v>137</v>
       </c>
@@ -17927,11 +17203,9 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
-      </c>
-      <c r="I492" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
         <v>137</v>
       </c>
@@ -17968,11 +17242,9 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
-      </c>
-      <c r="I493" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
         <v>137</v>
       </c>
@@ -18009,11 +17281,9 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
-      </c>
-      <c r="I494" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
         <v>137</v>
       </c>
@@ -18050,11 +17320,9 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
-      </c>
-      <c r="I495" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
         <v>137</v>
       </c>
@@ -18091,11 +17359,9 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
-      </c>
-      <c r="I496" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
         <v>137</v>
       </c>
@@ -18132,11 +17398,9 @@
         <v>-1305685.905499353</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
-      </c>
-      <c r="I497" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
         <v>137</v>
       </c>
@@ -18173,11 +17437,9 @@
         <v>-1305685.905499353</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
-      </c>
-      <c r="I498" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
         <v>137</v>
       </c>
@@ -18214,11 +17476,9 @@
         <v>-1304896.912499353</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
-      </c>
-      <c r="I499" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
         <v>137</v>
       </c>
@@ -18255,11 +17515,9 @@
         <v>-1318437.248299353</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
-      </c>
-      <c r="I500" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
         <v>137</v>
       </c>
@@ -18296,11 +17554,9 @@
         <v>-1338640.952699353</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
-      </c>
-      <c r="I501" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
         <v>137</v>
       </c>
@@ -18337,11 +17593,9 @@
         <v>-1367355.496099353</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
-      </c>
-      <c r="I502" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
         <v>137</v>
       </c>
@@ -18378,11 +17632,9 @@
         <v>-1359367.365299353</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
-      </c>
-      <c r="I503" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
         <v>137</v>
       </c>
@@ -18419,11 +17671,9 @@
         <v>-1363883.042399353</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
-      </c>
-      <c r="I504" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
         <v>137</v>
       </c>
@@ -18460,11 +17710,9 @@
         <v>-1363715.880899353</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
-      </c>
-      <c r="I505" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
         <v>137</v>
       </c>
@@ -18501,11 +17749,9 @@
         <v>-1363717.880899353</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
-      </c>
-      <c r="I506" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
         <v>137</v>
       </c>
@@ -18542,11 +17788,9 @@
         <v>-1363717.880899353</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
-      </c>
-      <c r="I507" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
         <v>137</v>
       </c>
@@ -18583,11 +17827,9 @@
         <v>-1364127.380899353</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
-      </c>
-      <c r="I508" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
         <v>137</v>
       </c>
@@ -18624,11 +17866,9 @@
         <v>-1355681.185699353</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
-      </c>
-      <c r="I509" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
         <v>137</v>
       </c>
@@ -18665,11 +17905,9 @@
         <v>-1355681.185699353</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
-      </c>
-      <c r="I510" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
         <v>137</v>
       </c>
@@ -18706,11 +17944,9 @@
         <v>-1355681.185699353</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
-      </c>
-      <c r="I511" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
         <v>137</v>
       </c>
@@ -18747,11 +17983,9 @@
         <v>-1355869.185699353</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
-      </c>
-      <c r="I512" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
         <v>137</v>
       </c>
@@ -18788,11 +18022,9 @@
         <v>-1355869.185699353</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
-      </c>
-      <c r="I513" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
         <v>137</v>
       </c>
@@ -18829,11 +18061,9 @@
         <v>-1328370.893699353</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
-      </c>
-      <c r="I514" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
         <v>137</v>
       </c>
@@ -18870,11 +18100,9 @@
         <v>-1269537.781804796</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
-      </c>
-      <c r="I515" t="n">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
         <v>137</v>
       </c>
@@ -18911,11 +18139,9 @@
         <v>-1269537.781804796</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
-      </c>
-      <c r="I516" t="n">
-        <v>147</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
         <v>137</v>
       </c>
@@ -18952,11 +18178,9 @@
         <v>-1256142.282904796</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
-      </c>
-      <c r="I517" t="n">
-        <v>147</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
         <v>137</v>
       </c>
@@ -18993,11 +18217,9 @@
         <v>-1162762.620302782</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
-      </c>
-      <c r="I518" t="n">
-        <v>149</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
         <v>137</v>
       </c>
@@ -19034,11 +18256,9 @@
         <v>-1162762.620302782</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
-      </c>
-      <c r="I519" t="n">
-        <v>151</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
         <v>137</v>
       </c>
@@ -19075,11 +18295,9 @@
         <v>-1162762.620302782</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
-      </c>
-      <c r="I520" t="n">
-        <v>151</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
         <v>137</v>
       </c>
@@ -19116,11 +18334,9 @@
         <v>-1162762.620302782</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
-      </c>
-      <c r="I521" t="n">
-        <v>151</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
         <v>137</v>
       </c>
@@ -19157,11 +18373,9 @@
         <v>-1162762.620302782</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
-      </c>
-      <c r="I522" t="n">
-        <v>151</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
         <v>137</v>
       </c>
@@ -19198,11 +18412,9 @@
         <v>-1176462.028302782</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
-      </c>
-      <c r="I523" t="n">
-        <v>151</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
         <v>137</v>
       </c>
@@ -19239,11 +18451,9 @@
         <v>-1172710.207302782</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
-      </c>
-      <c r="I524" t="n">
-        <v>148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
         <v>137</v>
       </c>
@@ -19280,11 +18490,9 @@
         <v>-1172710.207302782</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
-      </c>
-      <c r="I525" t="n">
-        <v>149</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
         <v>137</v>
       </c>
@@ -19321,11 +18529,9 @@
         <v>-1171706.207302782</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
-      </c>
-      <c r="I526" t="n">
-        <v>149</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
         <v>137</v>
       </c>
@@ -19557,11 +18763,9 @@
         <v>-1133880.910502782</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
         <v>137</v>
       </c>
@@ -19598,11 +18802,9 @@
         <v>-1133880.910502782</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
-      </c>
-      <c r="I533" t="n">
-        <v>148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
         <v>137</v>
       </c>
@@ -19639,11 +18841,9 @@
         <v>-1133880.910502782</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
-      </c>
-      <c r="I534" t="n">
-        <v>148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
         <v>137</v>
       </c>
@@ -19680,11 +18880,9 @@
         <v>-1133880.910502782</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
-      </c>
-      <c r="I535" t="n">
-        <v>148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
         <v>137</v>
       </c>
@@ -19721,11 +18919,9 @@
         <v>-1137500.529102782</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
-      </c>
-      <c r="I536" t="n">
-        <v>148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
         <v>137</v>
       </c>
@@ -19762,11 +18958,9 @@
         <v>-1147778.318002782</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
-      </c>
-      <c r="I537" t="n">
-        <v>147</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
         <v>137</v>
       </c>
@@ -19803,11 +18997,9 @@
         <v>-1147778.318002782</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
-      </c>
-      <c r="I538" t="n">
-        <v>146</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
         <v>137</v>
       </c>
@@ -19844,11 +19036,9 @@
         <v>-1202801.996002782</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
-      </c>
-      <c r="I539" t="n">
-        <v>146</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
         <v>137</v>
       </c>
@@ -19885,11 +19075,9 @@
         <v>-1276583.026802782</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
-      </c>
-      <c r="I540" t="n">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
         <v>137</v>
       </c>
@@ -19926,11 +19114,9 @@
         <v>-1276583.026802782</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
-      </c>
-      <c r="I541" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
         <v>137</v>
       </c>
@@ -19967,11 +19153,9 @@
         <v>-1276581.865302783</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
-      </c>
-      <c r="I542" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
         <v>137</v>
       </c>
@@ -20008,11 +19192,9 @@
         <v>-1289256.029202783</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
-      </c>
-      <c r="I543" t="n">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
         <v>137</v>
       </c>
@@ -20049,11 +19231,9 @@
         <v>-1289252.706202782</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
-      </c>
-      <c r="I544" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
         <v>137</v>
       </c>
@@ -20090,11 +19270,9 @@
         <v>-1328135.083502783</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
-      </c>
-      <c r="I545" t="n">
-        <v>146</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
         <v>137</v>
       </c>
@@ -20131,11 +19309,9 @@
         <v>-1328135.083502783</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
-      </c>
-      <c r="I546" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
         <v>137</v>
       </c>
@@ -20172,11 +19348,9 @@
         <v>-1328135.083502783</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
         <v>137</v>
       </c>
@@ -20213,11 +19387,9 @@
         <v>-1323252.679802783</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
         <v>137</v>
       </c>
@@ -20254,11 +19426,9 @@
         <v>-1323252.679802783</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
-      </c>
-      <c r="I549" t="n">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
         <v>137</v>
       </c>
@@ -20295,11 +19465,9 @@
         <v>-1323416.841302783</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
-      </c>
-      <c r="I550" t="n">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
         <v>137</v>
       </c>
@@ -20336,11 +19504,9 @@
         <v>-1302584.947402783</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
         <v>137</v>
       </c>
@@ -20377,11 +19543,9 @@
         <v>-1302588.108902782</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
-      </c>
-      <c r="I552" t="n">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
         <v>137</v>
       </c>
@@ -20418,11 +19582,9 @@
         <v>-1302588.108902782</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
-      </c>
-      <c r="I553" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
         <v>137</v>
       </c>
@@ -20459,11 +19621,9 @@
         <v>-1302588.108902782</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
-      </c>
-      <c r="I554" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
         <v>137</v>
       </c>
@@ -20500,11 +19660,9 @@
         <v>-1302588.108902782</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
         <v>137</v>
       </c>
@@ -20541,11 +19699,9 @@
         <v>-1302588.108902782</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
-      </c>
-      <c r="I556" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
         <v>137</v>
       </c>
@@ -20582,11 +19738,9 @@
         <v>-1302588.108902782</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
-      </c>
-      <c r="I557" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
         <v>137</v>
       </c>
@@ -20623,11 +19777,9 @@
         <v>-1302588.108902782</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
         <v>137</v>
       </c>
@@ -20664,11 +19816,9 @@
         <v>-1283199.336202782</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
       <c r="J559" t="n">
         <v>137</v>
       </c>
@@ -20705,11 +19855,9 @@
         <v>-1283199.336202782</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
-      </c>
-      <c r="I560" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
         <v>137</v>
       </c>
@@ -20746,11 +19894,9 @@
         <v>-1283198.174702782</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
-      </c>
-      <c r="I561" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
         <v>137</v>
       </c>
@@ -20787,11 +19933,9 @@
         <v>-1283198.174702782</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
-      </c>
-      <c r="I562" t="n">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
         <v>137</v>
       </c>
@@ -20828,11 +19972,9 @@
         <v>-1285609.307702782</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
-      </c>
-      <c r="I563" t="n">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
       <c r="J563" t="n">
         <v>137</v>
       </c>
@@ -20869,11 +20011,9 @@
         <v>-1275603.984702782</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
-      </c>
-      <c r="I564" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
         <v>137</v>
       </c>
@@ -20910,11 +20050,9 @@
         <v>-1276229.910602782</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
-      </c>
-      <c r="I565" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
         <v>137</v>
       </c>
@@ -20951,11 +20089,9 @@
         <v>-1319599.400802782</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
-      </c>
-      <c r="I566" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
         <v>137</v>
       </c>
@@ -20992,11 +20128,9 @@
         <v>-1319518.239302782</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
-      </c>
-      <c r="I567" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
       <c r="J567" t="n">
         <v>137</v>
       </c>
@@ -21033,11 +20167,9 @@
         <v>-1319518.239302782</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
-      </c>
-      <c r="I568" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
         <v>137</v>
       </c>
@@ -21074,11 +20206,9 @@
         <v>-1319518.239302782</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
-      </c>
-      <c r="I569" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
         <v>137</v>
       </c>
@@ -21115,11 +20245,9 @@
         <v>-1312911.102802782</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
         <v>137</v>
       </c>
@@ -21156,11 +20284,9 @@
         <v>-1312911.102802782</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
-      </c>
-      <c r="I571" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
       <c r="J571" t="n">
         <v>137</v>
       </c>
@@ -21197,11 +20323,9 @@
         <v>-1312912.102802782</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
-      </c>
-      <c r="I572" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
         <v>137</v>
       </c>
@@ -21238,11 +20362,9 @@
         <v>-1296369.073502782</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
-      </c>
-      <c r="I573" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
       <c r="J573" t="n">
         <v>137</v>
       </c>
@@ -21279,11 +20401,9 @@
         <v>-1302073.054802782</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
-      </c>
-      <c r="I574" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
       <c r="J574" t="n">
         <v>137</v>
       </c>
@@ -21320,11 +20440,9 @@
         <v>-1302073.054802782</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
-      </c>
-      <c r="I575" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
       <c r="J575" t="n">
         <v>137</v>
       </c>
@@ -21361,11 +20479,9 @@
         <v>-1302073.054802782</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
-      </c>
-      <c r="I576" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
         <v>137</v>
       </c>
@@ -21402,11 +20518,9 @@
         <v>-1302073.054802782</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
-      </c>
-      <c r="I577" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
         <v>137</v>
       </c>
@@ -21443,11 +20557,9 @@
         <v>-1351210.833302782</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
-      </c>
-      <c r="I578" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
       <c r="J578" t="n">
         <v>137</v>
       </c>
@@ -21525,11 +20637,9 @@
         <v>-1439869.121302782</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
-      </c>
-      <c r="I580" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
       <c r="J580" t="n">
         <v>137</v>
       </c>
@@ -21648,11 +20758,9 @@
         <v>-1414715.313102782</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
-      </c>
-      <c r="I583" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
       <c r="J583" t="n">
         <v>137</v>
       </c>
@@ -21689,11 +20797,9 @@
         <v>-1414715.313102782</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
-      </c>
-      <c r="I584" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
       <c r="J584" t="n">
         <v>137</v>
       </c>
@@ -21771,11 +20877,9 @@
         <v>-1413139.734702782</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
-      </c>
-      <c r="I586" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
       <c r="J586" t="n">
         <v>137</v>
       </c>
@@ -21853,11 +20957,9 @@
         <v>-1413139.734702782</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
-      </c>
-      <c r="I588" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
       <c r="J588" t="n">
         <v>137</v>
       </c>
@@ -21894,11 +20996,9 @@
         <v>-1400639.244602782</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
-      </c>
-      <c r="I589" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
       <c r="J589" t="n">
         <v>137</v>
       </c>
@@ -21935,11 +21035,9 @@
         <v>-1405157.083002782</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
-      </c>
-      <c r="I590" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
       <c r="J590" t="n">
         <v>137</v>
       </c>
@@ -21976,11 +21074,9 @@
         <v>-1405157.083002782</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
-      </c>
-      <c r="I591" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
       <c r="J591" t="n">
         <v>137</v>
       </c>
@@ -22017,11 +21113,9 @@
         <v>-1405157.083002782</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
-      </c>
-      <c r="I592" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
       <c r="J592" t="n">
         <v>137</v>
       </c>
@@ -22058,11 +21152,9 @@
         <v>-1402503.926202782</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
-      </c>
-      <c r="I593" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
       <c r="J593" t="n">
         <v>137</v>
       </c>
@@ -22099,11 +21191,9 @@
         <v>-1389165.362902782</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
       <c r="J594" t="n">
         <v>137</v>
       </c>
@@ -22140,11 +21230,9 @@
         <v>-1389165.362902782</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
-      </c>
-      <c r="I595" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
       <c r="J595" t="n">
         <v>137</v>
       </c>
@@ -22181,11 +21269,9 @@
         <v>-1389165.362902782</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
-      </c>
-      <c r="I596" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
       <c r="J596" t="n">
         <v>137</v>
       </c>
@@ -22222,11 +21308,9 @@
         <v>-1388530.876202782</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
-      </c>
-      <c r="I597" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
       <c r="J597" t="n">
         <v>137</v>
       </c>
@@ -22263,11 +21347,9 @@
         <v>-1388530.876202782</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
       <c r="J598" t="n">
         <v>137</v>
       </c>
@@ -22304,11 +21386,9 @@
         <v>-1386502.673002782</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
       <c r="J599" t="n">
         <v>137</v>
       </c>
@@ -22345,11 +21425,9 @@
         <v>-1386502.673002782</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
       <c r="J600" t="n">
         <v>137</v>
       </c>
@@ -22386,11 +21464,9 @@
         <v>-1389337.497002782</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
-      </c>
-      <c r="I601" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
       <c r="J601" t="n">
         <v>137</v>
       </c>
@@ -22427,11 +21503,9 @@
         <v>-1389337.497002782</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
-      </c>
-      <c r="I602" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
       <c r="J602" t="n">
         <v>137</v>
       </c>
@@ -22468,11 +21542,9 @@
         <v>-1389337.497002782</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
-      </c>
-      <c r="I603" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
       <c r="J603" t="n">
         <v>137</v>
       </c>
@@ -22509,11 +21581,9 @@
         <v>-1389337.497002782</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
-      </c>
-      <c r="I604" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
       <c r="J604" t="n">
         <v>137</v>
       </c>
@@ -22550,11 +21620,9 @@
         <v>-1389344.497002782</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
-      </c>
-      <c r="I605" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
       <c r="J605" t="n">
         <v>137</v>
       </c>
@@ -22591,11 +21659,9 @@
         <v>-1389343.497002782</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
-      </c>
-      <c r="I606" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
         <v>137</v>
       </c>
@@ -22632,11 +21698,9 @@
         <v>-1408629.987902782</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
-      </c>
-      <c r="I607" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
         <v>137</v>
       </c>
@@ -22673,11 +21737,9 @@
         <v>-1408629.987902782</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
         <v>137</v>
       </c>
@@ -22714,11 +21776,9 @@
         <v>-1408528.987902782</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
-      </c>
-      <c r="I609" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
         <v>137</v>
       </c>
@@ -22755,11 +21815,9 @@
         <v>-1389231.389802782</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
-      </c>
-      <c r="I610" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
       <c r="J610" t="n">
         <v>137</v>
       </c>
@@ -22796,11 +21854,9 @@
         <v>-1376227.479502782</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
-      </c>
-      <c r="I611" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
       <c r="J611" t="n">
         <v>137</v>
       </c>
@@ -22837,11 +21893,9 @@
         <v>-1379269.218102782</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
-      </c>
-      <c r="I612" t="n">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
       <c r="J612" t="n">
         <v>137</v>
       </c>
@@ -22878,11 +21932,9 @@
         <v>-1411605.061502782</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
-      </c>
-      <c r="I613" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
       <c r="J613" t="n">
         <v>137</v>
       </c>
@@ -22919,11 +21971,9 @@
         <v>-1411605.061502782</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
-      </c>
-      <c r="I614" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
       <c r="J614" t="n">
         <v>137</v>
       </c>
@@ -23001,11 +22051,9 @@
         <v>-1411604.061502782</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
-      </c>
-      <c r="I616" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
       <c r="J616" t="n">
         <v>137</v>
       </c>
@@ -23042,11 +22090,9 @@
         <v>-1411604.061502782</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
-      </c>
-      <c r="I617" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
       <c r="J617" t="n">
         <v>137</v>
       </c>
@@ -23061,6 +22107,6 @@
       <c r="M617" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest FX.xlsx
+++ b/BackTest/2019-11-02 BackTest FX.xlsx
@@ -3058,7 +3058,7 @@
         <v>729635.8652899624</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>478687.7562899624</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>523602.7615899624</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>409201.9259308247</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>366019.3573308247</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>340620.1423308247</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>334788.3660308247</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>314019.8834308247</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>353723.494066539</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>342442.788266539</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>342442.788266539</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>346682.412566539</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>369043.5813308248</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>372704.5813308248</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>372704.5813308248</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>355930.2598308247</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>345891.8341308247</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>344127.5269308247</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>344127.5269308247</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>274237.1793308248</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>195751.2317308247</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>197095.7026308247</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>201955.7229308247</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>200211.1142200139</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>200211.1142200139</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>104372.5763200139</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>115759.7492200139</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>267041.2127308709</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>238037.4085815203</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>301964.5623815203</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>285210.8812815203</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>253703.1520815203</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>243738.3014815203</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>243334.3411815203</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>246372.2755457587</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>246372.2755457587</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>246372.2755457587</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>248566.7623457587</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>263134.7420457587</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>232083.7124921639</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>232092.4280921639</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>229425.4402921639</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>229425.4402921639</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>228470.5075921639</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>233234.5599803992</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>232384.5880803992</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>233496.3358277676</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>214566.4892277676</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>223537.8571277676</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>215013.9392277676</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>199808.2772277676</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>167598.6833277676</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>177364.7662257542</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>172689.1065257542</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>173814.9465257542</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>112954.5585257542</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>126379.0100257542</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>114152.1650257542</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>88457.87072575418</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -13717,10 +13717,14 @@
         <v>-1432173.515799353</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>137</v>
+      </c>
+      <c r="J404" t="n">
+        <v>137</v>
+      </c>
       <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
@@ -13750,11 +13754,19 @@
         <v>-1432173.515799353</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>137</v>
+      </c>
+      <c r="J405" t="n">
+        <v>137</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13783,11 +13795,19 @@
         <v>-1432172.515799353</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>137</v>
+      </c>
+      <c r="J406" t="n">
+        <v>137</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13816,11 +13836,19 @@
         <v>-1439877.298399353</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>138</v>
+      </c>
+      <c r="J407" t="n">
+        <v>137</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13849,11 +13877,19 @@
         <v>-1439877.298399353</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>137</v>
+      </c>
+      <c r="J408" t="n">
+        <v>137</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13882,11 +13918,19 @@
         <v>-1439877.298399353</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>137</v>
+      </c>
+      <c r="J409" t="n">
+        <v>137</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13923,7 +13967,11 @@
       <c r="J410" t="n">
         <v>137</v>
       </c>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13962,7 +14010,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L411" t="n">
@@ -14272,9 +14320,11 @@
         <v>-1453217.289599353</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>138</v>
+      </c>
       <c r="J419" t="n">
         <v>137</v>
       </c>
@@ -14311,9 +14361,11 @@
         <v>-1453217.289599353</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>138</v>
+      </c>
       <c r="J420" t="n">
         <v>137</v>
       </c>
@@ -14391,9 +14443,11 @@
         <v>-1453216.289599353</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>139</v>
+      </c>
       <c r="J422" t="n">
         <v>137</v>
       </c>
@@ -14510,11 +14564,9 @@
         <v>-1462791.086599353</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
         <v>137</v>
       </c>
@@ -14674,11 +14726,9 @@
         <v>-1465377.083299353</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
         <v>137</v>
       </c>
@@ -15492,9 +15542,11 @@
         <v>-1473492.230999353</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>138</v>
+      </c>
       <c r="J449" t="n">
         <v>137</v>
       </c>
@@ -15572,9 +15624,11 @@
         <v>-1483243.798099353</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>137</v>
+      </c>
       <c r="J451" t="n">
         <v>137</v>
       </c>
@@ -15611,9 +15665,11 @@
         <v>-1483243.798099353</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>136</v>
+      </c>
       <c r="J452" t="n">
         <v>137</v>
       </c>
@@ -15650,9 +15706,11 @@
         <v>-1480627.781099353</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>136</v>
+      </c>
       <c r="J453" t="n">
         <v>137</v>
       </c>
@@ -16345,9 +16403,11 @@
         <v>-1271491.617799353</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>143</v>
+      </c>
       <c r="J470" t="n">
         <v>137</v>
       </c>
@@ -16891,9 +16951,11 @@
         <v>-1295885.405599353</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>143</v>
+      </c>
       <c r="J484" t="n">
         <v>137</v>
       </c>
@@ -17047,9 +17109,11 @@
         <v>-1299071.169399353</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>144</v>
+      </c>
       <c r="J488" t="n">
         <v>137</v>
       </c>
@@ -17086,9 +17150,11 @@
         <v>-1293908.617099353</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>143</v>
+      </c>
       <c r="J489" t="n">
         <v>137</v>
       </c>
@@ -17125,9 +17191,11 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>144</v>
+      </c>
       <c r="J490" t="n">
         <v>137</v>
       </c>
@@ -17164,9 +17232,11 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>143</v>
+      </c>
       <c r="J491" t="n">
         <v>137</v>
       </c>
@@ -17203,9 +17273,11 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>143</v>
+      </c>
       <c r="J492" t="n">
         <v>137</v>
       </c>
@@ -17242,9 +17314,11 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>143</v>
+      </c>
       <c r="J493" t="n">
         <v>137</v>
       </c>
@@ -17281,9 +17355,11 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>143</v>
+      </c>
       <c r="J494" t="n">
         <v>137</v>
       </c>
@@ -17320,9 +17396,11 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>143</v>
+      </c>
       <c r="J495" t="n">
         <v>137</v>
       </c>
@@ -17359,9 +17437,11 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>143</v>
+      </c>
       <c r="J496" t="n">
         <v>137</v>
       </c>
@@ -17398,9 +17478,11 @@
         <v>-1305685.905499353</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>143</v>
+      </c>
       <c r="J497" t="n">
         <v>137</v>
       </c>
@@ -17437,9 +17519,11 @@
         <v>-1305685.905499353</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>142</v>
+      </c>
       <c r="J498" t="n">
         <v>137</v>
       </c>
@@ -17476,9 +17560,11 @@
         <v>-1304896.912499353</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>142</v>
+      </c>
       <c r="J499" t="n">
         <v>137</v>
       </c>
@@ -17515,9 +17601,11 @@
         <v>-1318437.248299353</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>143</v>
+      </c>
       <c r="J500" t="n">
         <v>137</v>
       </c>
@@ -17554,9 +17642,11 @@
         <v>-1338640.952699353</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>142</v>
+      </c>
       <c r="J501" t="n">
         <v>137</v>
       </c>
@@ -17593,9 +17683,11 @@
         <v>-1367355.496099353</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>141</v>
+      </c>
       <c r="J502" t="n">
         <v>137</v>
       </c>
@@ -17632,9 +17724,11 @@
         <v>-1359367.365299353</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>140</v>
+      </c>
       <c r="J503" t="n">
         <v>137</v>
       </c>
@@ -17671,9 +17765,11 @@
         <v>-1363883.042399353</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>142</v>
+      </c>
       <c r="J504" t="n">
         <v>137</v>
       </c>
@@ -17710,9 +17806,11 @@
         <v>-1363715.880899353</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>140</v>
+      </c>
       <c r="J505" t="n">
         <v>137</v>
       </c>
@@ -17749,9 +17847,11 @@
         <v>-1363717.880899353</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>143</v>
+      </c>
       <c r="J506" t="n">
         <v>137</v>
       </c>
@@ -17788,9 +17888,11 @@
         <v>-1363717.880899353</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>142</v>
+      </c>
       <c r="J507" t="n">
         <v>137</v>
       </c>
@@ -17827,9 +17929,11 @@
         <v>-1364127.380899353</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>142</v>
+      </c>
       <c r="J508" t="n">
         <v>137</v>
       </c>
@@ -20596,11 +20700,9 @@
         <v>-1439869.121302782</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
-      </c>
-      <c r="I579" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
       <c r="J579" t="n">
         <v>137</v>
       </c>
@@ -20676,11 +20778,9 @@
         <v>-1433347.534202782</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
       <c r="J581" t="n">
         <v>137</v>
       </c>
@@ -20717,11 +20817,9 @@
         <v>-1387447.742102782</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
       <c r="J582" t="n">
         <v>137</v>
       </c>
@@ -20836,11 +20934,9 @@
         <v>-1413138.734702782</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
-      </c>
-      <c r="I585" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
       <c r="J585" t="n">
         <v>137</v>
       </c>
@@ -20916,11 +21012,9 @@
         <v>-1413139.734702782</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
-      </c>
-      <c r="I587" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
       <c r="J587" t="n">
         <v>137</v>
       </c>
@@ -22010,11 +22104,9 @@
         <v>-1411605.061502782</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
-      </c>
-      <c r="I615" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
       <c r="J615" t="n">
         <v>137</v>
       </c>
